--- a/问题跟进列表/需求和问题列表.xlsx
+++ b/问题跟进列表/需求和问题列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="139">
   <si>
     <t>系统自动提醒</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -570,6 +570,14 @@
   </si>
   <si>
     <t>总过期数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新导入香车会的客户资料并和保险客户资料合并</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨蓉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -749,9 +757,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -768,6 +773,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1089,377 +1097,377 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16">
-      <c r="B2" s="15"/>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:16">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <f>COUNTA(需求!A2:A50000)</f>
         <v>30</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <f>COUNTIF(需求!$C$2:$C$50000,"否")</f>
         <v>16</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="16">
         <f>(C3-D3)/C3</f>
         <v>0.46666666666666667</v>
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <f>COUNTA(问题!$A$2:$A$50000)</f>
         <v>7</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <f>COUNTIF(问题!$B$2:$B$50000,"否")</f>
         <v>1</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="16">
         <f>(C4-D4)/C4</f>
         <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <f>COUNTA(运营!A2:A50000)</f>
-        <v>7</v>
-      </c>
-      <c r="D5" s="15">
+        <v>8</v>
+      </c>
+      <c r="D5" s="14">
         <f>COUNTIF(运营!$B$2:$B$49999,"否")</f>
-        <v>4</v>
-      </c>
-      <c r="E5" s="17">
+        <v>5</v>
+      </c>
+      <c r="E5" s="16">
         <f>(C5-D5)/C5</f>
-        <v>0.42857142857142855</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="8"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="5"/>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="21"/>
+      <c r="B8" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="11"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="10"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="5"/>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="14"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="13"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="H11" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="I11" s="20" t="s">
+      <c r="I11" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="J11" s="20" t="s">
+      <c r="J11" s="19" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="14">
         <f>COUNTIFS(需求!C:C,"否",需求!G:G,B12)</f>
         <v>4</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="14">
         <f ca="1">COUNTIFS(需求!C:C,"否",需求!G:G,B12,需求!E:E,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
         <v>0</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="14">
         <f>COUNTIFS(问题!B:B,"否",问题!F:F,B12)</f>
         <v>0</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="14">
         <f ca="1">COUNTIFS(问题!B:B,"否",问题!F:F,B12,问题!D:D,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
         <v>0</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="14">
         <f>COUNTIFS(运营!B:B,"否",运营!F:F,B12)</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="15">
+        <v>1</v>
+      </c>
+      <c r="H12" s="14">
         <f ca="1">COUNTIFS(运营!B:B,"否",运营!F:F,B12,运营!D:D,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
         <v>0</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="20">
         <f>SUM(C12,E12,G12)</f>
-        <v>4</v>
-      </c>
-      <c r="J12" s="21">
+        <v>5</v>
+      </c>
+      <c r="J12" s="20">
         <f ca="1">SUM(D12,F12,H12)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="14">
         <f>COUNTIFS(需求!C:C,"否",需求!G:G,B13)</f>
         <v>1</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="14">
         <f ca="1">COUNTIFS(需求!C:C,"否",需求!G:G,B13,需求!E:E,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
         <v>0</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="14">
         <f>COUNTIFS(问题!B:B,"否",问题!F:F,B13)</f>
         <v>0</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="14">
         <f ca="1">COUNTIFS(问题!B:B,"否",问题!F:F,B13,问题!D:D,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
         <v>0</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="14">
         <f>COUNTIFS(运营!B:B,"否",运营!F:F,B13)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="14">
         <f ca="1">COUNTIFS(运营!B:B,"否",运营!F:F,B13,运营!D:D,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
         <v>0</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="20">
         <f t="shared" ref="I13:I17" si="0">SUM(C13,E13,G13)</f>
         <v>1</v>
       </c>
-      <c r="J13" s="21">
+      <c r="J13" s="20">
         <f t="shared" ref="J13:J17" ca="1" si="1">SUM(D13,F13,H13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="14">
         <f>COUNTIFS(需求!C:C,"否",需求!G:G,B14)</f>
         <v>2</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="14">
         <f ca="1">COUNTIFS(需求!C:C,"否",需求!G:G,B14,需求!E:E,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
         <v>0</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="14">
         <f>COUNTIFS(问题!B:B,"否",问题!F:F,B14)</f>
         <v>1</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="14">
         <f ca="1">COUNTIFS(问题!B:B,"否",问题!F:F,B14,问题!D:D,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
         <v>0</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="14">
         <f>COUNTIFS(运营!B:B,"否",运营!F:F,B14)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="14">
         <f ca="1">COUNTIFS(运营!B:B,"否",运营!F:F,B14,运营!D:D,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
         <v>0</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="20">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="20">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:16">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="14">
         <f>COUNTIFS(需求!C:C,"否",需求!G:G,B15)</f>
         <v>2</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="14">
         <f ca="1">COUNTIFS(需求!C:C,"否",需求!G:G,B15,需求!E:E,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
         <v>0</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="14">
         <f>COUNTIFS(问题!B:B,"否",问题!F:F,B15)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="14">
         <f ca="1">COUNTIFS(问题!B:B,"否",问题!F:F,B15,问题!D:D,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
         <v>0</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="14">
         <f>COUNTIFS(运营!B:B,"否",运营!F:F,B15)</f>
         <v>4</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="14">
         <f ca="1">COUNTIFS(运营!B:B,"否",运营!F:F,B15,运营!D:D,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
         <v>0</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="20">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="J15" s="21">
+      <c r="J15" s="20">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="14">
         <f>COUNTIFS(需求!C:C,"否",需求!G:G,B16)</f>
         <v>5</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="14">
         <f ca="1">COUNTIFS(需求!C:C,"否",需求!G:G,B16,需求!E:E,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
         <v>0</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="14">
         <f>COUNTIFS(问题!B:B,"否",问题!F:F,B16)</f>
         <v>0</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="14">
         <f ca="1">COUNTIFS(问题!B:B,"否",问题!F:F,B16,问题!D:D,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
         <v>0</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="14">
         <f>COUNTIFS(运营!B:B,"否",运营!F:F,B16)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="14">
         <f ca="1">COUNTIFS(运营!B:B,"否",运营!F:F,B16,运营!D:D,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
         <v>0</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I16" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J16" s="21">
+      <c r="J16" s="20">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="14">
         <f>COUNTIFS(需求!C:C,"否",需求!G:G,B17)</f>
         <v>1</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="14">
         <f ca="1">COUNTIFS(需求!C:C,"否",需求!G:G,B17,需求!E:E,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
         <v>0</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="14">
         <f>COUNTIFS(问题!B:B,"否",问题!F:F,B17)</f>
         <v>0</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="14">
         <f ca="1">COUNTIFS(问题!B:B,"否",问题!F:F,B17,问题!D:D,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
         <v>0</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="14">
         <f>COUNTIFS(运营!B:B,"否",运营!F:F,B17)</f>
         <v>0</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="14">
         <f ca="1">COUNTIFS(运营!B:B,"否",运营!F:F,B17,运营!D:D,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
         <v>0</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I17" s="20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J17" s="21">
+      <c r="J17" s="20">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
@@ -1480,7 +1488,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
@@ -2301,11 +2309,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2460,6 +2468,23 @@
         <v>70</v>
       </c>
     </row>
+    <row r="9" spans="1:7" ht="27">
+      <c r="A9" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>20150326</v>
+      </c>
+      <c r="D9">
+        <v>20150331</v>
+      </c>
+      <c r="F9" t="s">
+        <v>138</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">

--- a/问题跟进列表/需求和问题列表.xlsx
+++ b/问题跟进列表/需求和问题列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="3" r:id="rId1"/>
@@ -13,14 +13,14 @@
     <sheet name="运营" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">需求!$A$1:$H$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">需求!$A$1:$H$33</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="146">
   <si>
     <t>系统自动提醒</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -574,6 +574,34 @@
   </si>
   <si>
     <t>重新导入香车会的客户资料并和保险客户资料合并</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨蓉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>决策支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詹健鸣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1083,7 +1111,7 @@
   <dimension ref="A2:P17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1114,15 +1142,15 @@
       </c>
       <c r="C3" s="14">
         <f>COUNTA(需求!A2:A50000)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D3" s="14">
         <f>COUNTIF(需求!$C$2:$C$50000,"否")</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E3" s="16">
         <f>(C3-D3)/C3</f>
-        <v>0.46666666666666667</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1256,7 +1284,7 @@
       </c>
       <c r="C12" s="14">
         <f>COUNTIFS(需求!C:C,"否",需求!G:G,B12)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" s="14">
         <f ca="1">COUNTIFS(需求!C:C,"否",需求!G:G,B12,需求!E:E,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
@@ -1280,7 +1308,7 @@
       </c>
       <c r="I12" s="20">
         <f>SUM(C12,E12,G12)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J12" s="20">
         <f ca="1">SUM(D12,F12,H12)</f>
@@ -1330,7 +1358,7 @@
       </c>
       <c r="C14" s="14">
         <f>COUNTIFS(需求!C:C,"否",需求!G:G,B14)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" s="14">
         <f ca="1">COUNTIFS(需求!C:C,"否",需求!G:G,B14,需求!E:E,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
@@ -1354,7 +1382,7 @@
       </c>
       <c r="I14" s="20">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J14" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -1485,12 +1513,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1531,7 +1558,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1551,7 +1578,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1">
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1565,7 +1592,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1">
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1585,7 +1612,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="27" hidden="1">
+    <row r="5" spans="1:8" ht="27">
       <c r="A5" s="2" t="s">
         <v>56</v>
       </c>
@@ -1608,7 +1635,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="27" hidden="1">
+    <row r="6" spans="1:8" ht="27">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -1628,7 +1655,7 @@
         <v>20140128</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="40.5" hidden="1">
+    <row r="7" spans="1:8" ht="40.5">
       <c r="A7" s="2" t="s">
         <v>39</v>
       </c>
@@ -1648,7 +1675,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1">
+    <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
         <v>38</v>
       </c>
@@ -1668,7 +1695,7 @@
         <v>20140105</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="40.5" hidden="1">
+    <row r="9" spans="1:8" ht="40.5">
       <c r="A9" s="2" t="s">
         <v>54</v>
       </c>
@@ -1688,7 +1715,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="40.5" hidden="1">
+    <row r="10" spans="1:8" ht="40.5">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -1708,7 +1735,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1">
+    <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
@@ -1725,7 +1752,7 @@
         <v>20141207</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1">
+    <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -1742,7 +1769,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1">
+    <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
@@ -1759,7 +1786,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1">
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
@@ -1779,7 +1806,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1">
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -1796,7 +1823,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1">
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
@@ -1816,7 +1843,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="108" hidden="1">
+    <row r="17" spans="1:8" ht="108">
       <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
@@ -1853,7 +1880,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1">
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>55</v>
       </c>
@@ -1876,7 +1903,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1">
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>53</v>
       </c>
@@ -1899,7 +1926,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="27" hidden="1">
+    <row r="21" spans="1:8" ht="27">
       <c r="A21" s="1" t="s">
         <v>59</v>
       </c>
@@ -1913,7 +1940,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="27" hidden="1">
+    <row r="22" spans="1:8" ht="27">
       <c r="A22" s="1" t="s">
         <v>84</v>
       </c>
@@ -1933,7 +1960,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="27" hidden="1">
+    <row r="23" spans="1:8" ht="27">
       <c r="A23" s="1" t="s">
         <v>85</v>
       </c>
@@ -1956,7 +1983,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="27" hidden="1">
+    <row r="24" spans="1:8" ht="27">
       <c r="A24" s="1" t="s">
         <v>87</v>
       </c>
@@ -1979,7 +2006,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="27" hidden="1">
+    <row r="25" spans="1:8" ht="27">
       <c r="A25" s="1" t="s">
         <v>90</v>
       </c>
@@ -2019,7 +2046,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="27" hidden="1">
+    <row r="27" spans="1:8" ht="27">
       <c r="A27" s="1" t="s">
         <v>100</v>
       </c>
@@ -2039,7 +2066,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1">
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
         <v>102</v>
       </c>
@@ -2059,7 +2086,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="27" hidden="1">
+    <row r="29" spans="1:8" ht="27">
       <c r="A29" s="1" t="s">
         <v>105</v>
       </c>
@@ -2122,19 +2149,48 @@
         <v>114</v>
       </c>
     </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" t="s">
+        <v>140</v>
+      </c>
+      <c r="D32">
+        <v>20150325</v>
+      </c>
+      <c r="E32">
+        <v>20150414</v>
+      </c>
+      <c r="G32" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C33" t="s">
+        <v>144</v>
+      </c>
+      <c r="D33">
+        <v>20150325</v>
+      </c>
+      <c r="E33">
+        <v>20150601</v>
+      </c>
+      <c r="G33" t="s">
+        <v>145</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H31">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="否"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="6">
-      <filters>
-        <filter val="杨蓉"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H33"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
@@ -2311,7 +2367,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>

--- a/问题跟进列表/需求和问题列表.xlsx
+++ b/问题跟进列表/需求和问题列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="3" r:id="rId1"/>
@@ -13,14 +13,14 @@
     <sheet name="运营" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">需求!$A$1:$H$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">需求!$A$1:$H$34</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="150">
   <si>
     <t>系统自动提醒</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -606,6 +606,22 @@
   </si>
   <si>
     <t>杨蓉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应该是刘彬这个客户的数据问题，其他会员没有这个情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户和流程的附件增加预览功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詹健鸣</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1110,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1142,15 +1158,15 @@
       </c>
       <c r="C3" s="14">
         <f>COUNTA(需求!A2:A50000)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" s="14">
         <f>COUNTIF(需求!$C$2:$C$50000,"否")</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="16">
         <f>(C3-D3)/C3</f>
-        <v>0.4375</v>
+        <v>0.42424242424242425</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1163,11 +1179,11 @@
       </c>
       <c r="D4" s="14">
         <f>COUNTIF(问题!$B$2:$B$50000,"否")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="16">
         <f>(C4-D4)/C4</f>
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1180,11 +1196,11 @@
       </c>
       <c r="D5" s="14">
         <f>COUNTIF(运营!$B$2:$B$49999,"否")</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" s="16">
         <f>(C5-D5)/C5</f>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1300,7 +1316,7 @@
       </c>
       <c r="G12" s="14">
         <f>COUNTIFS(运营!B:B,"否",运营!F:F,B12)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="14">
         <f ca="1">COUNTIFS(运营!B:B,"否",运营!F:F,B12,运营!D:D,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
@@ -1308,7 +1324,7 @@
       </c>
       <c r="I12" s="20">
         <f>SUM(C12,E12,G12)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J12" s="20">
         <f ca="1">SUM(D12,F12,H12)</f>
@@ -1358,7 +1374,7 @@
       </c>
       <c r="C14" s="14">
         <f>COUNTIFS(需求!C:C,"否",需求!G:G,B14)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" s="14">
         <f ca="1">COUNTIFS(需求!C:C,"否",需求!G:G,B14,需求!E:E,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
@@ -1366,7 +1382,7 @@
       </c>
       <c r="E14" s="14">
         <f>COUNTIFS(问题!B:B,"否",问题!F:F,B14)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="14">
         <f ca="1">COUNTIFS(问题!B:B,"否",问题!F:F,B14,问题!D:D,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
@@ -1513,11 +1529,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2189,8 +2205,28 @@
         <v>145</v>
       </c>
     </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34">
+        <v>20150327</v>
+      </c>
+      <c r="E34">
+        <v>20150407</v>
+      </c>
+      <c r="G34" t="s">
+        <v>149</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H33"/>
+  <autoFilter ref="A1:H34"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
@@ -2207,7 +2243,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2217,6 +2253,7 @@
     <col min="4" max="4" width="16.125" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.25" customWidth="1"/>
+    <col min="7" max="7" width="37" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2340,7 +2377,7 @@
         <v>104</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>20150326</v>
@@ -2348,8 +2385,14 @@
       <c r="D8">
         <v>20150328</v>
       </c>
+      <c r="E8">
+        <v>20150327</v>
+      </c>
       <c r="F8" t="s">
         <v>93</v>
+      </c>
+      <c r="G8" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2369,7 +2412,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2529,13 +2572,16 @@
         <v>137</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>20150326</v>
       </c>
       <c r="D9">
         <v>20150331</v>
+      </c>
+      <c r="E9">
+        <v>20140327</v>
       </c>
       <c r="F9" t="s">
         <v>138</v>

--- a/问题跟进列表/需求和问题列表.xlsx
+++ b/问题跟进列表/需求和问题列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="149">
   <si>
     <t>系统自动提醒</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -434,10 +434,6 @@
   </si>
   <si>
     <t>员工查询是否可以增加按角色查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1126,7 +1122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -1162,11 +1158,11 @@
       </c>
       <c r="D3" s="14">
         <f>COUNTIF(需求!$C$2:$C$50000,"否")</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3" s="16">
         <f>(C3-D3)/C3</f>
-        <v>0.42424242424242425</v>
+        <v>0.48484848484848486</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1267,36 +1263,36 @@
     </row>
     <row r="11" spans="1:16">
       <c r="B11" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="D11" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="E11" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="F11" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="G11" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="H11" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="H11" s="18" t="s">
-        <v>128</v>
-      </c>
       <c r="I11" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="J11" s="19" t="s">
         <v>135</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="B12" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C12" s="14">
         <f>COUNTIFS(需求!C:C,"否",需求!G:G,B12)</f>
@@ -1333,11 +1329,11 @@
     </row>
     <row r="13" spans="1:16">
       <c r="B13" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C13" s="14">
         <f>COUNTIFS(需求!C:C,"否",需求!G:G,B13)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="14">
         <f ca="1">COUNTIFS(需求!C:C,"否",需求!G:G,B13,需求!E:E,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
@@ -1361,7 +1357,7 @@
       </c>
       <c r="I13" s="20">
         <f t="shared" ref="I13:I17" si="0">SUM(C13,E13,G13)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="20">
         <f t="shared" ref="J13:J17" ca="1" si="1">SUM(D13,F13,H13)</f>
@@ -1370,11 +1366,11 @@
     </row>
     <row r="14" spans="1:16">
       <c r="B14" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C14" s="14">
         <f>COUNTIFS(需求!C:C,"否",需求!G:G,B14)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" s="14">
         <f ca="1">COUNTIFS(需求!C:C,"否",需求!G:G,B14,需求!E:E,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
@@ -1398,7 +1394,7 @@
       </c>
       <c r="I14" s="20">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J14" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -1407,7 +1403,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="B15" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C15" s="14">
         <f>COUNTIFS(需求!C:C,"否",需求!G:G,B15)</f>
@@ -1444,7 +1440,7 @@
     </row>
     <row r="16" spans="1:16">
       <c r="B16" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C16" s="14">
         <f>COUNTIFS(需求!C:C,"否",需求!G:G,B16)</f>
@@ -1481,7 +1477,7 @@
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C17" s="14">
         <f>COUNTIFS(需求!C:C,"否",需求!G:G,B17)</f>
@@ -1531,9 +1527,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2030,7 +2026,7 @@
         <v>91</v>
       </c>
       <c r="C25" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="D25">
         <v>20150320</v>
@@ -2090,7 +2086,7 @@
         <v>91</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="D28">
         <v>20150325</v>
@@ -2099,12 +2095,12 @@
         <v>20150331</v>
       </c>
       <c r="G28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="27">
       <c r="A29" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>91</v>
@@ -2119,35 +2115,35 @@
         <v>20150414</v>
       </c>
       <c r="G29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D30">
         <v>20150325</v>
       </c>
       <c r="G30" t="s">
+        <v>108</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="C31" t="s">
         <v>11</v>
@@ -2159,21 +2155,21 @@
         <v>20150501</v>
       </c>
       <c r="G31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D32">
         <v>20150325</v>
@@ -2182,18 +2178,18 @@
         <v>20150414</v>
       </c>
       <c r="G32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" t="s">
         <v>143</v>
-      </c>
-      <c r="C33" t="s">
-        <v>144</v>
       </c>
       <c r="D33">
         <v>20150325</v>
@@ -2202,15 +2198,15 @@
         <v>20150601</v>
       </c>
       <c r="G33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="C34" t="s">
         <v>11</v>
@@ -2222,7 +2218,7 @@
         <v>20150407</v>
       </c>
       <c r="G34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2374,7 +2370,7 @@
     </row>
     <row r="8" spans="1:7" ht="40.5">
       <c r="A8" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -2392,7 +2388,7 @@
         <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2513,12 +2509,12 @@
         <v>20150415</v>
       </c>
       <c r="F5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s">
         <v>92</v>
@@ -2535,10 +2531,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" t="s">
         <v>117</v>
-      </c>
-      <c r="B7" t="s">
-        <v>118</v>
       </c>
       <c r="C7">
         <v>20150326</v>
@@ -2547,15 +2543,15 @@
         <v>20150501</v>
       </c>
       <c r="F7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" t="s">
         <v>120</v>
-      </c>
-      <c r="B8" t="s">
-        <v>121</v>
       </c>
       <c r="C8">
         <v>20150315</v>
@@ -2569,7 +2565,7 @@
     </row>
     <row r="9" spans="1:7" ht="27">
       <c r="A9" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -2584,7 +2580,7 @@
         <v>20140327</v>
       </c>
       <c r="F9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/问题跟进列表/需求和问题列表.xlsx
+++ b/问题跟进列表/需求和问题列表.xlsx
@@ -13,14 +13,14 @@
     <sheet name="运营" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">需求!$A$1:$H$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">需求!$A$1:$H$37</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="156">
   <si>
     <t>系统自动提醒</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -401,10 +401,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>客户列表的首页显示内容修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>每周六晚上8点前各位开发人员将代码放置到SVN，由陈向荣在周六晚上或者周日白天上载到阿里云测试机。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -421,11 +417,171 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>客户号填写的时候，首字母给出后是否能自动给出相应的最大编号或者建议编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工查询是否可以增加按角色查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>360视图中，点击已经成为会员的会员号，无法显示相关会员信息，如刘彬这个客户，点击会员号后，一直是转菊花的状态无法打开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础商品录入到商品包时，基础商品列表需要显示其对应的业务和业务层级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈向荣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能打印相应的商品包供客户签字使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>杨蓉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>客户号填写的时候，首字母给出后是否能自动给出相应的最大编号或者建议编号</t>
+    <t>需求需要统筹调研</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘建斌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加报价功能和后台相关管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E车险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求详细跟进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢创基</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将俱乐部网站搬到阿里云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重点进行饮水机的线上销售运营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢创基</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSCC的线上文章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求未完成数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求过期数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题未完成数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题过期数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营未完成数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营过期数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨蓉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘建斌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詹健鸣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢创基</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈向荣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李力为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总过期数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新导入香车会的客户资料并和保险客户资料合并</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨蓉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>决策支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詹健鸣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表部分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -433,26 +589,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>员工查询是否可以增加按角色查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>360视图中，点击已经成为会员的会员号，无法显示相关会员信息，如刘彬这个客户，点击会员号后，一直是转菊花的状态无法打开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础商品录入到商品包时，基础商品列表需要显示其对应的业务和业务层级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈向荣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能打印相应的商品包供客户签字使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -461,23 +597,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需求需要统筹调研</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘建斌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加报价功能和后台相关管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E车险</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求详细跟进</t>
+    <t>应该是刘彬这个客户的数据问题，其他会员没有这个情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户和流程的附件增加预览功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詹健鸣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务单点击后，在展示的客户资料里增加其他联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詹健鸣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统增加自动发短信功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -485,63 +629,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>将俱乐部网站搬到阿里云</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重点进行饮水机的线上销售运营</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谢创基</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TSCC的线上文章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求未完成数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求过期数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题未完成数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题过期数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运营未完成数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运营过期数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨蓉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘建斌</t>
+    <t>研究系统对接性，系统选型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户高级帅选，增加按商品包的到期时间进行筛选，到期时间支持绝对时间只选择某年，或者某年某月，或者某天。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -549,75 +645,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>谢创基</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈向荣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李力为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总过期数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重新导入香车会的客户资料并和保险客户资料合并</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨蓉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>决策支持</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>詹健鸣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报表部分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>知识库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨蓉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应该是刘彬这个客户的数据问题，其他会员没有这个情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户和流程的附件增加预览功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>知识库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>詹健鸣</t>
+    <t xml:space="preserve">客户列表的首页显示内容修改：客户号、会员号、姓名、电话号码、车牌（如有多个，并排显示）、其他联系方式 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -785,7 +813,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -813,6 +841,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -831,6 +862,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2562225</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>1149265</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76200" y="9991725"/>
+          <a:ext cx="2486025" cy="930190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1123,7 +1197,7 @@
   <dimension ref="A2:P17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1154,15 +1228,15 @@
       </c>
       <c r="C3" s="14">
         <f>COUNTA(需求!A2:A50000)</f>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D3" s="14">
         <f>COUNTIF(需求!$C$2:$C$50000,"否")</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E3" s="16">
         <f>(C3-D3)/C3</f>
-        <v>0.48484848484848486</v>
+        <v>0.44444444444444442</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1200,11 +1274,11 @@
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="21" t="s">
-        <v>98</v>
+      <c r="A7" s="22" t="s">
+        <v>97</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -1222,9 +1296,9 @@
       <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -1242,9 +1316,9 @@
       <c r="P8" s="10"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="21"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -1263,40 +1337,40 @@
     </row>
     <row r="11" spans="1:16">
       <c r="B11" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="E11" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="F11" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="G11" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="H11" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="G11" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>127</v>
-      </c>
       <c r="I11" s="19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="B12" s="15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C12" s="14">
         <f>COUNTIFS(需求!C:C,"否",需求!G:G,B12)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" s="14">
         <f ca="1">COUNTIFS(需求!C:C,"否",需求!G:G,B12,需求!E:E,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
@@ -1320,7 +1394,7 @@
       </c>
       <c r="I12" s="20">
         <f>SUM(C12,E12,G12)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J12" s="20">
         <f ca="1">SUM(D12,F12,H12)</f>
@@ -1329,7 +1403,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="B13" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C13" s="14">
         <f>COUNTIFS(需求!C:C,"否",需求!G:G,B13)</f>
@@ -1366,15 +1440,15 @@
     </row>
     <row r="14" spans="1:16">
       <c r="B14" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C14" s="14">
         <f>COUNTIFS(需求!C:C,"否",需求!G:G,B14)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D14" s="14">
         <f ca="1">COUNTIFS(需求!C:C,"否",需求!G:G,B14,需求!E:E,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="14">
         <f>COUNTIFS(问题!B:B,"否",问题!F:F,B14)</f>
@@ -1394,20 +1468,20 @@
       </c>
       <c r="I14" s="20">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J14" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="B15" s="15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C15" s="14">
         <f>COUNTIFS(需求!C:C,"否",需求!G:G,B15)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" s="14">
         <f ca="1">COUNTIFS(需求!C:C,"否",需求!G:G,B15,需求!E:E,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
@@ -1427,20 +1501,20 @@
       </c>
       <c r="H15" s="14">
         <f ca="1">COUNTIFS(运营!B:B,"否",运营!F:F,B15,运营!D:D,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="20">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J15" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="B16" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C16" s="14">
         <f>COUNTIFS(需求!C:C,"否",需求!G:G,B16)</f>
@@ -1448,7 +1522,7 @@
       </c>
       <c r="D16" s="14">
         <f ca="1">COUNTIFS(需求!C:C,"否",需求!G:G,B16,需求!E:E,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="14">
         <f>COUNTIFS(问题!B:B,"否",问题!F:F,B16)</f>
@@ -1472,12 +1546,12 @@
       </c>
       <c r="J16" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C17" s="14">
         <f>COUNTIFS(需求!C:C,"否",需求!G:G,B17)</f>
@@ -1525,11 +1599,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2038,9 +2112,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" ht="27">
       <c r="A26" s="1" t="s">
-        <v>94</v>
+        <v>155</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>91</v>
@@ -2055,15 +2129,15 @@
         <v>20150407</v>
       </c>
       <c r="G26" t="s">
-        <v>99</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="27">
       <c r="A27" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C27" t="s">
         <v>11</v>
@@ -2080,7 +2154,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>91</v>
@@ -2095,12 +2169,12 @@
         <v>20150331</v>
       </c>
       <c r="G28" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="27">
       <c r="A29" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>91</v>
@@ -2115,35 +2189,35 @@
         <v>20150414</v>
       </c>
       <c r="G29" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D30">
         <v>20150325</v>
       </c>
       <c r="G30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C31" t="s">
         <v>11</v>
@@ -2155,21 +2229,21 @@
         <v>20150501</v>
       </c>
       <c r="G31" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D32">
         <v>20150325</v>
@@ -2178,18 +2252,18 @@
         <v>20150414</v>
       </c>
       <c r="G32" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="1" t="s">
+      <c r="C33" t="s">
         <v>141</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C33" t="s">
-        <v>143</v>
       </c>
       <c r="D33">
         <v>20150325</v>
@@ -2198,15 +2272,15 @@
         <v>20150601</v>
       </c>
       <c r="G33" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="B34" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C34" t="s">
         <v>11</v>
@@ -2218,11 +2292,75 @@
         <v>20150407</v>
       </c>
       <c r="G34" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="96" customHeight="1">
+      <c r="A35" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35">
+        <v>20150328</v>
+      </c>
+      <c r="E35">
+        <v>20150407</v>
+      </c>
+      <c r="G35" t="s">
         <v>148</v>
       </c>
     </row>
+    <row r="36" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A36" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36">
+        <v>20150402</v>
+      </c>
+      <c r="E36">
+        <v>20150501</v>
+      </c>
+      <c r="G36" t="s">
+        <v>150</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="28.5" customHeight="1">
+      <c r="A37" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37">
+        <v>20150402</v>
+      </c>
+      <c r="E37">
+        <v>20150414</v>
+      </c>
+      <c r="G37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="12.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A1:H34"/>
+  <autoFilter ref="A1:H37"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
@@ -2230,6 +2368,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2370,7 +2509,7 @@
     </row>
     <row r="8" spans="1:7" ht="40.5">
       <c r="A8" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -2388,7 +2527,7 @@
         <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2408,7 +2547,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2509,12 +2648,12 @@
         <v>20150415</v>
       </c>
       <c r="F5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
         <v>92</v>
@@ -2531,10 +2670,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C7">
         <v>20150326</v>
@@ -2543,15 +2682,15 @@
         <v>20150501</v>
       </c>
       <c r="F7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C8">
         <v>20150315</v>
@@ -2565,7 +2704,7 @@
     </row>
     <row r="9" spans="1:7" ht="27">
       <c r="A9" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -2580,7 +2719,7 @@
         <v>20140327</v>
       </c>
       <c r="F9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/问题跟进列表/需求和问题列表.xlsx
+++ b/问题跟进列表/需求和问题列表.xlsx
@@ -1232,11 +1232,11 @@
       </c>
       <c r="D3" s="14">
         <f>COUNTIF(需求!$C$2:$C$50000,"否")</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="16">
         <f>(C3-D3)/C3</f>
-        <v>0.44444444444444442</v>
+        <v>0.47222222222222221</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="C14" s="14">
         <f>COUNTIFS(需求!C:C,"否",需求!G:G,B14)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" s="14">
         <f ca="1">COUNTIFS(需求!C:C,"否",需求!G:G,B14,需求!E:E,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
@@ -1468,7 +1468,7 @@
       </c>
       <c r="I14" s="20">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J14" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -1603,7 +1603,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2303,7 +2303,7 @@
         <v>50</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D35">
         <v>20150328</v>

--- a/问题跟进列表/需求和问题列表.xlsx
+++ b/问题跟进列表/需求和问题列表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="155">
   <si>
     <t>系统自动提醒</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -570,10 +570,6 @@
   </si>
   <si>
     <t>决策支持</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1232,11 +1228,11 @@
       </c>
       <c r="D3" s="14">
         <f>COUNTIF(需求!$C$2:$C$50000,"否")</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="16">
         <f>(C3-D3)/C3</f>
-        <v>0.47222222222222221</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1444,7 +1440,7 @@
       </c>
       <c r="C14" s="14">
         <f>COUNTIFS(需求!C:C,"否",需求!G:G,B14)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" s="14">
         <f ca="1">COUNTIFS(需求!C:C,"否",需求!G:G,B14,需求!E:E,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
@@ -1468,7 +1464,7 @@
       </c>
       <c r="I14" s="20">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J14" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -1602,8 +1598,8 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2114,7 +2110,7 @@
     </row>
     <row r="26" spans="1:8" ht="27">
       <c r="A26" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>91</v>
@@ -2129,7 +2125,7 @@
         <v>20150407</v>
       </c>
       <c r="G26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="27">
@@ -2243,7 +2239,7 @@
         <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="D32">
         <v>20150325</v>
@@ -2252,18 +2248,18 @@
         <v>20150414</v>
       </c>
       <c r="G32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" t="s">
         <v>140</v>
-      </c>
-      <c r="C33" t="s">
-        <v>141</v>
       </c>
       <c r="D33">
         <v>20150325</v>
@@ -2272,15 +2268,15 @@
         <v>20150601</v>
       </c>
       <c r="G33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="C34" t="s">
         <v>11</v>
@@ -2292,12 +2288,12 @@
         <v>20150407</v>
       </c>
       <c r="G34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="96" customHeight="1">
       <c r="A35" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>50</v>
@@ -2312,12 +2308,12 @@
         <v>20150407</v>
       </c>
       <c r="G35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="12.75" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>46</v>
@@ -2332,18 +2328,18 @@
         <v>20150501</v>
       </c>
       <c r="G36" t="s">
+        <v>149</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="28.5" customHeight="1">
       <c r="A37" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="C37" t="s">
         <v>11</v>
@@ -2527,7 +2523,7 @@
         <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/问题跟进列表/需求和问题列表.xlsx
+++ b/问题跟进列表/需求和问题列表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="160">
   <si>
     <t>系统自动提醒</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -309,10 +309,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>展示拒绝批量要求，这种可能性很低，而且出错几率高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>谢创基</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -573,6 +569,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>詹健鸣</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -642,6 +642,24 @@
   </si>
   <si>
     <t xml:space="preserve">客户列表的首页显示内容修改：客户号、会员号、姓名、电话号码、车牌（如有多个，并排显示）、其他联系方式 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂起</t>
+  </si>
+  <si>
+    <t>暂时拒绝批量要求，这种可能性很低，而且出错几率高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时挂起该需求，由于客户号不具有规范性，系统无法识别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待上载</t>
+  </si>
+  <si>
+    <t>20150407，基本完成，但是多辆车显示问题暂未解决</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1193,7 +1211,7 @@
   <dimension ref="A2:P17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="B11" sqref="B11:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1228,11 +1246,11 @@
       </c>
       <c r="D3" s="14">
         <f>COUNTIF(需求!$C$2:$C$50000,"否")</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E3" s="16">
         <f>(C3-D3)/C3</f>
-        <v>0.5</v>
+        <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1271,10 +1289,10 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -1294,7 +1312,7 @@
     <row r="8" spans="1:16">
       <c r="A8" s="22"/>
       <c r="B8" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -1314,7 +1332,7 @@
     <row r="9" spans="1:16">
       <c r="A9" s="22"/>
       <c r="B9" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -1333,36 +1351,36 @@
     </row>
     <row r="11" spans="1:16">
       <c r="B11" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="D11" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="E11" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="F11" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="G11" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="H11" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="H11" s="18" t="s">
-        <v>125</v>
-      </c>
       <c r="I11" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="J11" s="19" t="s">
         <v>132</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="B12" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C12" s="14">
         <f>COUNTIFS(需求!C:C,"否",需求!G:G,B12)</f>
@@ -1399,7 +1417,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="B13" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C13" s="14">
         <f>COUNTIFS(需求!C:C,"否",需求!G:G,B13)</f>
@@ -1436,11 +1454,11 @@
     </row>
     <row r="14" spans="1:16">
       <c r="B14" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C14" s="14">
         <f>COUNTIFS(需求!C:C,"否",需求!G:G,B14)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" s="14">
         <f ca="1">COUNTIFS(需求!C:C,"否",需求!G:G,B14,需求!E:E,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
@@ -1464,7 +1482,7 @@
       </c>
       <c r="I14" s="20">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J14" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -1473,7 +1491,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="B15" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C15" s="14">
         <f>COUNTIFS(需求!C:C,"否",需求!G:G,B15)</f>
@@ -1510,15 +1528,15 @@
     </row>
     <row r="16" spans="1:16">
       <c r="B16" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C16" s="14">
         <f>COUNTIFS(需求!C:C,"否",需求!G:G,B16)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" s="14">
         <f ca="1">COUNTIFS(需求!C:C,"否",需求!G:G,B16,需求!E:E,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="14">
         <f>COUNTIFS(问题!B:B,"否",问题!F:F,B16)</f>
@@ -1538,16 +1556,16 @@
       </c>
       <c r="I16" s="20">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J16" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C17" s="14">
         <f>COUNTIFS(需求!C:C,"否",需求!G:G,B17)</f>
@@ -1598,8 +1616,8 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26:XFD26"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1842,7 +1860,7 @@
         <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="D12" t="s">
         <v>65</v>
@@ -1896,13 +1914,13 @@
         <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="D15" t="s">
         <v>65</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>71</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1922,7 +1940,7 @@
         <v>20150430</v>
       </c>
       <c r="G16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="108">
@@ -1956,10 +1974,10 @@
         <v>20150701</v>
       </c>
       <c r="G18" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1979,10 +1997,10 @@
         <v>20150901</v>
       </c>
       <c r="G19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2002,10 +2020,10 @@
         <v>20150901</v>
       </c>
       <c r="G20" t="s">
+        <v>81</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="27">
@@ -2016,21 +2034,27 @@
         <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>158</v>
       </c>
       <c r="D21" t="s">
         <v>65</v>
       </c>
+      <c r="E21">
+        <v>20150407</v>
+      </c>
+      <c r="G21" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="22" spans="1:8" ht="27">
       <c r="A22" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D22">
         <v>20150325</v>
@@ -2038,13 +2062,16 @@
       <c r="E22">
         <v>20150331</v>
       </c>
+      <c r="F22">
+        <v>20150403</v>
+      </c>
       <c r="G22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="27">
       <c r="A23" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>46</v>
@@ -2062,12 +2089,12 @@
         <v>20150325</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="27">
       <c r="A24" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>46</v>
@@ -2085,15 +2112,15 @@
         <v>20150325</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="27">
       <c r="A25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
@@ -2105,7 +2132,7 @@
         <v>20150331</v>
       </c>
       <c r="G25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="27">
@@ -2113,10 +2140,10 @@
         <v>154</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>158</v>
       </c>
       <c r="D26">
         <v>20150320</v>
@@ -2127,16 +2154,19 @@
       <c r="G26" t="s">
         <v>153</v>
       </c>
+      <c r="H26" s="1" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="27" spans="1:8" ht="27">
       <c r="A27" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="D27">
         <v>20150320</v>
@@ -2144,16 +2174,22 @@
       <c r="E27">
         <v>20150331</v>
       </c>
+      <c r="F27">
+        <v>20150403</v>
+      </c>
       <c r="G27" t="s">
-        <v>93</v>
+        <v>92</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
@@ -2165,18 +2201,18 @@
         <v>20150331</v>
       </c>
       <c r="G28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="27">
       <c r="A29" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" t="s">
         <v>91</v>
-      </c>
-      <c r="C29" t="s">
-        <v>92</v>
       </c>
       <c r="D29">
         <v>20150325</v>
@@ -2185,35 +2221,35 @@
         <v>20150414</v>
       </c>
       <c r="G29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" t="s">
         <v>104</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" t="s">
-        <v>105</v>
       </c>
       <c r="D30">
         <v>20150325</v>
       </c>
       <c r="G30" t="s">
+        <v>105</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="C31" t="s">
         <v>11</v>
@@ -2225,21 +2261,21 @@
         <v>20150501</v>
       </c>
       <c r="G31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="D32">
         <v>20150325</v>
@@ -2299,7 +2335,7 @@
         <v>50</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="D35">
         <v>20150328</v>
@@ -2360,7 +2396,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
-      <formula1>"是,否"</formula1>
+      <formula1>"是,否,挂起,待上载"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2404,10 +2440,10 @@
         <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2418,7 +2454,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D2">
         <v>20141214</v>
@@ -2432,7 +2468,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E3">
         <v>20150105</v>
@@ -2446,7 +2482,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E4">
         <v>20150105</v>
@@ -2460,7 +2496,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E5">
         <v>20150105</v>
@@ -2474,7 +2510,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E6">
         <v>20150326</v>
@@ -2491,7 +2527,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D7">
         <v>2015</v>
@@ -2505,7 +2541,7 @@
     </row>
     <row r="8" spans="1:7" ht="40.5">
       <c r="A8" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -2520,7 +2556,7 @@
         <v>20150327</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
         <v>142</v>
@@ -2564,7 +2600,7 @@
         <v>8</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>24</v>
@@ -2573,7 +2609,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>12</v>
@@ -2587,7 +2623,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D2">
         <v>20141214</v>
@@ -2604,7 +2640,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D3">
         <v>20141214</v>
@@ -2621,7 +2657,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D4">
         <v>20150205</v>
@@ -2638,21 +2674,21 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5">
         <v>20150415</v>
       </c>
       <c r="F5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6">
         <v>20150326</v>
@@ -2666,10 +2702,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" t="s">
         <v>114</v>
-      </c>
-      <c r="B7" t="s">
-        <v>115</v>
       </c>
       <c r="C7">
         <v>20150326</v>
@@ -2678,15 +2714,15 @@
         <v>20150501</v>
       </c>
       <c r="F7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" t="s">
         <v>117</v>
-      </c>
-      <c r="B8" t="s">
-        <v>118</v>
       </c>
       <c r="C8">
         <v>20150315</v>
@@ -2700,7 +2736,7 @@
     </row>
     <row r="9" spans="1:7" ht="27">
       <c r="A9" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -2715,7 +2751,7 @@
         <v>20140327</v>
       </c>
       <c r="F9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/问题跟进列表/需求和问题列表.xlsx
+++ b/问题跟进列表/需求和问题列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="3" r:id="rId1"/>
@@ -13,14 +13,14 @@
     <sheet name="运营" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">需求!$A$1:$H$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">需求!$A$1:$H$38</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="164">
   <si>
     <t>系统自动提醒</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -660,6 +660,22 @@
   </si>
   <si>
     <t>20150407，基本完成，但是多辆车显示问题暂未解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在代办单里，也支持订单的高级查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于断保业务的数据分析，业务改进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1210,8 +1226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:D17"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1242,15 +1258,15 @@
       </c>
       <c r="C3" s="14">
         <f>COUNTA(需求!A2:A50000)</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D3" s="14">
         <f>COUNTIF(需求!$C$2:$C$50000,"否")</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3" s="16">
         <f>(C3-D3)/C3</f>
-        <v>0.58333333333333337</v>
+        <v>0.55263157894736847</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1458,7 +1474,7 @@
       </c>
       <c r="C14" s="14">
         <f>COUNTIFS(需求!C:C,"否",需求!G:G,B14)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" s="14">
         <f ca="1">COUNTIFS(需求!C:C,"否",需求!G:G,B14,需求!E:E,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
@@ -1482,7 +1498,7 @@
       </c>
       <c r="I14" s="20">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J14" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -1569,7 +1585,7 @@
       </c>
       <c r="C17" s="14">
         <f>COUNTIFS(需求!C:C,"否",需求!G:G,B17)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="14">
         <f ca="1">COUNTIFS(需求!C:C,"否",需求!G:G,B17,需求!E:E,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
@@ -1593,7 +1609,7 @@
       </c>
       <c r="I17" s="20">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -1613,11 +1629,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:H35"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2390,9 +2406,48 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="12.75" customHeight="1"/>
+    <row r="38" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A38" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38">
+        <v>20150403</v>
+      </c>
+      <c r="E38">
+        <v>20150421</v>
+      </c>
+      <c r="G38" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39">
+        <v>20150403</v>
+      </c>
+      <c r="E39">
+        <v>20150501</v>
+      </c>
+      <c r="G39" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H37"/>
+  <autoFilter ref="A1:H38"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">

--- a/问题跟进列表/需求和问题列表.xlsx
+++ b/问题跟进列表/需求和问题列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="165">
   <si>
     <t>系统自动提醒</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -676,6 +676,10 @@
   </si>
   <si>
     <t>知识库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>催单功能放在订单查询菜单下，没有权限控制，一旦做了催单，这个菜单就会放到待办单的最前面。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1226,7 +1230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -1262,11 +1266,11 @@
       </c>
       <c r="D3" s="14">
         <f>COUNTIF(需求!$C$2:$C$50000,"否")</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="16">
         <f>(C3-D3)/C3</f>
-        <v>0.55263157894736847</v>
+        <v>0.57894736842105265</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1548,11 +1552,11 @@
       </c>
       <c r="C16" s="14">
         <f>COUNTIFS(需求!C:C,"否",需求!G:G,B16)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" s="14">
         <f ca="1">COUNTIFS(需求!C:C,"否",需求!G:G,B16,需求!E:E,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" s="14">
         <f>COUNTIFS(问题!B:B,"否",问题!F:F,B16)</f>
@@ -1572,11 +1576,11 @@
       </c>
       <c r="I16" s="20">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J16" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:10">
@@ -1631,9 +1635,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1708,7 +1712,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" ht="27">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1716,7 +1720,7 @@
         <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>158</v>
       </c>
       <c r="D4" t="s">
         <v>65</v>
@@ -1724,8 +1728,14 @@
       <c r="E4">
         <v>20150407</v>
       </c>
+      <c r="F4">
+        <v>20150409</v>
+      </c>
       <c r="G4" t="s">
         <v>69</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="27">

--- a/问题跟进列表/需求和问题列表.xlsx
+++ b/问题跟进列表/需求和问题列表.xlsx
@@ -4,23 +4,24 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="3" r:id="rId1"/>
     <sheet name="需求" sheetId="1" r:id="rId2"/>
     <sheet name="问题" sheetId="2" r:id="rId3"/>
     <sheet name="运营" sheetId="4" r:id="rId4"/>
+    <sheet name="其他人员配合任务" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">需求!$A$1:$H$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">需求!$A$1:$H$41</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="188">
   <si>
     <t>系统自动提醒</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -493,35 +494,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求未完成数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求过期数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题未完成数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题过期数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营未完成数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营过期数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨蓉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘建斌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詹健鸣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢创基</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈向荣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李力为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总过期数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新导入香车会的客户资料并和保险客户资料合并</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨蓉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>决策支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>人员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求未完成数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求过期数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题未完成数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题过期数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运营未完成数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运营过期数</t>
+    <t>詹健鸣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -529,7 +590,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>刘建斌</t>
+    <t>应该是刘彬这个客户的数据问题，其他会员没有这个情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户和流程的附件增加预览功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -537,27 +606,110 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>业务单点击后，在展示的客户资料里增加其他联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詹健鸣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>谢创基</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>陈向荣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李力为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总过期数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重新导入香车会的客户资料并和保险客户资料合并</t>
+    <t>研究系统对接性，系统选型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詹健鸣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">客户列表的首页显示内容修改：客户号、会员号、姓名、电话号码、车牌（如有多个，并排显示）、其他联系方式 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂起</t>
+  </si>
+  <si>
+    <t>暂时拒绝批量要求，这种可能性很低，而且出错几率高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时挂起该需求，由于客户号不具有规范性，系统无法识别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20150407，基本完成，但是多辆车显示问题暂未解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在代办单里，也支持订单的高级查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于断保业务的数据分析，业务改进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>催单功能放在订单查询菜单下，没有权限控制，一旦做了催单，这个菜单就会放到待办单的最前面。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客服人员的组织工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄咏仪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约保险公司谈相关系统对接问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄咏仪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香车会活动的跟进和沟通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄咏仪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E车险的1期修复和2问题跟进整理，需求书完善</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -565,7 +717,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>决策支持</t>
+    <t>业务单的客户资料里增加弹出框可以看到更多的客户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詹健鸣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20150411，完成了界面改造和文章的第一台车，但是没有联系方式等内容和后续跟进内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统增加可以直接给客户发短信功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车类资料的时间控件，不能选择2005年以前的时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詹健鸣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户高级帅选，增加按商品包的到期时间进行筛选，到期时间支持绝对时间只选择某年，或者某年某月，或者某天。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户高级帅选，商品包的到期时间筛选，改为时间段的模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -577,11 +765,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>报表部分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>知识库</t>
+    <t>将客户资料中表格中的其他联系人也录入数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -590,96 +774,6 @@
   </si>
   <si>
     <t>杨蓉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应该是刘彬这个客户的数据问题，其他会员没有这个情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户和流程的附件增加预览功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>知识库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>詹健鸣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务单点击后，在展示的客户资料里增加其他联系方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>詹健鸣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统增加自动发短信功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谢创基</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>研究系统对接性，系统选型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户高级帅选，增加按商品包的到期时间进行筛选，到期时间支持绝对时间只选择某年，或者某年某月，或者某天。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>知识库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>詹健鸣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">客户列表的首页显示内容修改：客户号、会员号、姓名、电话号码、车牌（如有多个，并排显示）、其他联系方式 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挂起</t>
-  </si>
-  <si>
-    <t>暂时拒绝批量要求，这种可能性很低，而且出错几率高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂时挂起该需求，由于客户号不具有规范性，系统无法识别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待上载</t>
-  </si>
-  <si>
-    <t>20150407，基本完成，但是多辆车显示问题暂未解决</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在代办单里，也支持订单的高级查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>知识库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关于断保业务的数据分析，业务改进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>知识库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>催单功能放在订单查询菜单下，没有权限控制，一旦做了催单，这个菜单就会放到待办单的最前面。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1230,7 +1324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -1262,15 +1356,15 @@
       </c>
       <c r="C3" s="14">
         <f>COUNTA(需求!A2:A50000)</f>
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D3" s="14">
         <f>COUNTIF(需求!$C$2:$C$50000,"否")</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" s="16">
         <f>(C3-D3)/C3</f>
-        <v>0.57894736842105265</v>
+        <v>0.58536585365853655</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1279,7 +1373,7 @@
       </c>
       <c r="C4" s="14">
         <f>COUNTA(问题!$A$2:$A$50000)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="14">
         <f>COUNTIF(问题!$B$2:$B$50000,"否")</f>
@@ -1296,15 +1390,15 @@
       </c>
       <c r="C5" s="14">
         <f>COUNTA(运营!A2:A50000)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="14">
         <f>COUNTIF(运营!$B$2:$B$49999,"否")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5" s="16">
         <f>(C5-D5)/C5</f>
-        <v>0.5</v>
+        <v>0.44444444444444442</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1371,40 +1465,40 @@
     </row>
     <row r="11" spans="1:16">
       <c r="B11" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="D11" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="E11" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="F11" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="G11" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="H11" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="H11" s="18" t="s">
-        <v>124</v>
-      </c>
       <c r="I11" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="J11" s="19" t="s">
         <v>131</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="B12" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C12" s="14">
         <f>COUNTIFS(需求!C:C,"否",需求!G:G,B12)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" s="14">
         <f ca="1">COUNTIFS(需求!C:C,"否",需求!G:G,B12,需求!E:E,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
@@ -1420,7 +1514,7 @@
       </c>
       <c r="G12" s="14">
         <f>COUNTIFS(运营!B:B,"否",运营!F:F,B12)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="14">
         <f ca="1">COUNTIFS(运营!B:B,"否",运营!F:F,B12,运营!D:D,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
@@ -1428,7 +1522,7 @@
       </c>
       <c r="I12" s="20">
         <f>SUM(C12,E12,G12)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J12" s="20">
         <f ca="1">SUM(D12,F12,H12)</f>
@@ -1437,7 +1531,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="B13" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C13" s="14">
         <f>COUNTIFS(需求!C:C,"否",需求!G:G,B13)</f>
@@ -1474,11 +1568,11 @@
     </row>
     <row r="14" spans="1:16">
       <c r="B14" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C14" s="14">
         <f>COUNTIFS(需求!C:C,"否",需求!G:G,B14)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" s="14">
         <f ca="1">COUNTIFS(需求!C:C,"否",需求!G:G,B14,需求!E:E,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
@@ -1502,7 +1596,7 @@
       </c>
       <c r="I14" s="20">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J14" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -1511,7 +1605,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="B15" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C15" s="14">
         <f>COUNTIFS(需求!C:C,"否",需求!G:G,B15)</f>
@@ -1548,11 +1642,11 @@
     </row>
     <row r="16" spans="1:16">
       <c r="B16" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C16" s="14">
         <f>COUNTIFS(需求!C:C,"否",需求!G:G,B16)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" s="14">
         <f ca="1">COUNTIFS(需求!C:C,"否",需求!G:G,B16,需求!E:E,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
@@ -1576,7 +1670,7 @@
       </c>
       <c r="I16" s="20">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J16" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -1585,7 +1679,7 @@
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C17" s="14">
         <f>COUNTIFS(需求!C:C,"否",需求!G:G,B17)</f>
@@ -1633,11 +1727,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
+      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1720,7 +1814,7 @@
         <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>65</v>
@@ -1735,7 +1829,7 @@
         <v>69</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="27">
@@ -1886,7 +1980,7 @@
         <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D12" t="s">
         <v>65</v>
@@ -1940,13 +2034,13 @@
         <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D15" t="s">
         <v>65</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2060,7 +2154,7 @@
         <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
         <v>65</v>
@@ -2163,13 +2257,13 @@
     </row>
     <row r="26" spans="1:8" ht="27">
       <c r="A26" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C26" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="D26">
         <v>20150320</v>
@@ -2178,10 +2272,10 @@
         <v>20150407</v>
       </c>
       <c r="G26" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="27">
@@ -2192,7 +2286,7 @@
         <v>98</v>
       </c>
       <c r="C27" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D27">
         <v>20150320</v>
@@ -2207,7 +2301,7 @@
         <v>92</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2238,13 +2332,16 @@
         <v>90</v>
       </c>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="D29">
         <v>20150325</v>
       </c>
       <c r="E29">
         <v>20150414</v>
+      </c>
+      <c r="F29">
+        <v>20150411</v>
       </c>
       <c r="G29" t="s">
         <v>102</v>
@@ -2295,13 +2392,13 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D32">
         <v>20150325</v>
@@ -2310,18 +2407,18 @@
         <v>20150414</v>
       </c>
       <c r="G32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" t="s">
         <v>139</v>
-      </c>
-      <c r="C33" t="s">
-        <v>140</v>
       </c>
       <c r="D33">
         <v>20150325</v>
@@ -2330,15 +2427,15 @@
         <v>20150601</v>
       </c>
       <c r="G33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="C34" t="s">
         <v>11</v>
@@ -2350,18 +2447,18 @@
         <v>20150407</v>
       </c>
       <c r="G34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="96" customHeight="1">
       <c r="A35" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C35" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="D35">
         <v>20150328</v>
@@ -2370,12 +2467,12 @@
         <v>20150407</v>
       </c>
       <c r="G35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="12.75" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>46</v>
@@ -2390,21 +2487,21 @@
         <v>20150501</v>
       </c>
       <c r="G36" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="28.5" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>151</v>
+        <v>180</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D37">
         <v>20150402</v>
@@ -2412,16 +2509,19 @@
       <c r="E37">
         <v>20150414</v>
       </c>
+      <c r="F37">
+        <v>20150411</v>
+      </c>
       <c r="G37" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="12.75" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C38" t="s">
         <v>11</v>
@@ -2438,10 +2538,10 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C39" t="s">
         <v>11</v>
@@ -2456,8 +2556,68 @@
         <v>81</v>
       </c>
     </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40">
+        <v>20150410</v>
+      </c>
+      <c r="E40">
+        <v>20150413</v>
+      </c>
+      <c r="G40" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41">
+        <v>20150410</v>
+      </c>
+      <c r="E41">
+        <v>20150421</v>
+      </c>
+      <c r="G41" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C42" t="s">
+        <v>183</v>
+      </c>
+      <c r="D42">
+        <v>20150411</v>
+      </c>
+      <c r="E42">
+        <v>20150421</v>
+      </c>
+      <c r="G42" t="s">
+        <v>184</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H38"/>
+  <autoFilter ref="A1:H41"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
@@ -2471,11 +2631,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2624,7 +2784,27 @@
         <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>142</v>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9">
+        <v>20150410</v>
+      </c>
+      <c r="D9">
+        <v>20150411</v>
+      </c>
+      <c r="E9">
+        <v>20150411</v>
+      </c>
+      <c r="F9" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -2640,11 +2820,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2787,7 +2967,7 @@
         <v>116</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>20150315</v>
@@ -2798,10 +2978,13 @@
       <c r="F8" t="s">
         <v>70</v>
       </c>
+      <c r="G8" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="27">
       <c r="A9" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -2816,7 +2999,24 @@
         <v>20140327</v>
       </c>
       <c r="F9" t="s">
-        <v>134</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="27">
+      <c r="A10" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10">
+        <v>20150409</v>
+      </c>
+      <c r="D10">
+        <v>20150412</v>
+      </c>
+      <c r="F10" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -2828,4 +3028,103 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="40.125" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="30.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2">
+        <v>20150410</v>
+      </c>
+      <c r="D2">
+        <v>20150430</v>
+      </c>
+      <c r="F2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3">
+        <v>20150410</v>
+      </c>
+      <c r="D3">
+        <v>20150417</v>
+      </c>
+      <c r="F3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4">
+        <v>20150410</v>
+      </c>
+      <c r="F4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/问题跟进列表/需求和问题列表.xlsx
+++ b/问题跟进列表/需求和问题列表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="191">
   <si>
     <t>系统自动提醒</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -774,6 +774,18 @@
   </si>
   <si>
     <t>杨蓉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里云和富力关于知识库的使用互换的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘建斌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先组织讨论方案，由于和E车险的在一起，所以要考虑两者不要有影响</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1325,7 +1337,7 @@
   <dimension ref="A2:P17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1390,15 +1402,15 @@
       </c>
       <c r="C5" s="14">
         <f>COUNTA(运营!A2:A50000)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" s="14">
         <f>COUNTIF(运营!$B$2:$B$49999,"否")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E5" s="16">
         <f>(C5-D5)/C5</f>
-        <v>0.44444444444444442</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1551,7 +1563,7 @@
       </c>
       <c r="G13" s="14">
         <f>COUNTIFS(运营!B:B,"否",运营!F:F,B13)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="14">
         <f ca="1">COUNTIFS(运营!B:B,"否",运营!F:F,B13,运营!D:D,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
@@ -1559,7 +1571,7 @@
       </c>
       <c r="I13" s="20">
         <f t="shared" ref="I13:I17" si="0">SUM(C13,E13,G13)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="20">
         <f t="shared" ref="J13:J17" ca="1" si="1">SUM(D13,F13,H13)</f>
@@ -2820,11 +2832,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3017,6 +3029,26 @@
       </c>
       <c r="F10" t="s">
         <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="27">
+      <c r="A11" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>20150411</v>
+      </c>
+      <c r="D11">
+        <v>20150503</v>
+      </c>
+      <c r="F11" t="s">
+        <v>189</v>
+      </c>
+      <c r="G11" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/问题跟进列表/需求和问题列表.xlsx
+++ b/问题跟进列表/需求和问题列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="193">
   <si>
     <t>系统自动提醒</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -786,6 +786,14 @@
   </si>
   <si>
     <t>先组织讨论方案，由于和E车险的在一起，所以要考虑两者不要有影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>360视图中，其他联系方式的界面位置太小，造成数据显示去不全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詹健鸣</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1336,7 +1344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -1385,15 +1393,15 @@
       </c>
       <c r="C4" s="14">
         <f>COUNTA(问题!$A$2:$A$50000)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="14">
         <f>COUNTIF(问题!$B$2:$B$50000,"否")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="16">
         <f>(C4-D4)/C4</f>
-        <v>1</v>
+        <v>0.88888888888888884</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1592,7 +1600,7 @@
       </c>
       <c r="E14" s="14">
         <f>COUNTIFS(问题!B:B,"否",问题!F:F,B14)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="14">
         <f ca="1">COUNTIFS(问题!B:B,"否",问题!F:F,B14,问题!D:D,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
@@ -1608,7 +1616,7 @@
       </c>
       <c r="I14" s="20">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J14" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -2643,11 +2651,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2817,6 +2825,23 @@
       </c>
       <c r="F9" t="s">
         <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="27">
+      <c r="A10" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>20150411</v>
+      </c>
+      <c r="D10">
+        <v>20150414</v>
+      </c>
+      <c r="F10" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/问题跟进列表/需求和问题列表.xlsx
+++ b/问题跟进列表/需求和问题列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="3" r:id="rId1"/>
@@ -1749,9 +1749,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
+      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2653,7 +2653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>

--- a/问题跟进列表/需求和问题列表.xlsx
+++ b/问题跟进列表/需求和问题列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="195">
   <si>
     <t>系统自动提醒</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -794,6 +794,14 @@
   </si>
   <si>
     <t>詹健鸣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司的LOGO等vi设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢创基</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1410,15 +1418,15 @@
       </c>
       <c r="C5" s="14">
         <f>COUNTA(运营!A2:A50000)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="14">
         <f>COUNTIF(运营!$B$2:$B$49999,"否")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5" s="16">
         <f>(C5-D5)/C5</f>
-        <v>0.4</v>
+        <v>0.36363636363636365</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1645,7 +1653,7 @@
       </c>
       <c r="G15" s="14">
         <f>COUNTIFS(运营!B:B,"否",运营!F:F,B15)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H15" s="14">
         <f ca="1">COUNTIFS(运营!B:B,"否",运营!F:F,B15,运营!D:D,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
@@ -1653,7 +1661,7 @@
       </c>
       <c r="I15" s="20">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J15" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -1749,7 +1757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
     </sheetView>
@@ -2857,11 +2865,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3074,6 +3082,23 @@
       </c>
       <c r="G11" t="s">
         <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>201502</v>
+      </c>
+      <c r="D12">
+        <v>20150501</v>
+      </c>
+      <c r="F12" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/问题跟进列表/需求和问题列表.xlsx
+++ b/问题跟进列表/需求和问题列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="194">
   <si>
     <t>系统自动提醒</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -754,10 +754,6 @@
   </si>
   <si>
     <t>知识库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1388,11 +1384,11 @@
       </c>
       <c r="D3" s="14">
         <f>COUNTIF(需求!$C$2:$C$50000,"否")</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="16">
         <f>(C3-D3)/C3</f>
-        <v>0.58536585365853655</v>
+        <v>0.6097560975609756</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1530,7 +1526,7 @@
       </c>
       <c r="D12" s="14">
         <f ca="1">COUNTIFS(需求!C:C,"否",需求!G:G,B12,需求!E:E,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="14">
         <f>COUNTIFS(问题!B:B,"否",问题!F:F,B12)</f>
@@ -1546,7 +1542,7 @@
       </c>
       <c r="H12" s="14">
         <f ca="1">COUNTIFS(运营!B:B,"否",运营!F:F,B12,运营!D:D,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="20">
         <f>SUM(C12,E12,G12)</f>
@@ -1554,7 +1550,7 @@
       </c>
       <c r="J12" s="20">
         <f ca="1">SUM(D12,F12,H12)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1600,7 +1596,7 @@
       </c>
       <c r="C14" s="14">
         <f>COUNTIFS(需求!C:C,"否",需求!G:G,B14)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" s="14">
         <f ca="1">COUNTIFS(需求!C:C,"否",需求!G:G,B14,需求!E:E,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
@@ -1624,7 +1620,7 @@
       </c>
       <c r="I14" s="20">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J14" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -1757,9 +1753,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2632,7 +2628,7 @@
         <v>182</v>
       </c>
       <c r="C42" t="s">
-        <v>183</v>
+        <v>10</v>
       </c>
       <c r="D42">
         <v>20150411</v>
@@ -2641,7 +2637,7 @@
         <v>20150421</v>
       </c>
       <c r="G42" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2837,7 +2833,7 @@
     </row>
     <row r="10" spans="1:7" ht="27">
       <c r="A10" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -2849,7 +2845,7 @@
         <v>20150414</v>
       </c>
       <c r="F10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -2867,7 +2863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
@@ -3049,10 +3045,10 @@
     </row>
     <row r="10" spans="1:7" ht="27">
       <c r="A10" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B10" t="s">
         <v>185</v>
-      </c>
-      <c r="B10" t="s">
-        <v>186</v>
       </c>
       <c r="C10">
         <v>20150409</v>
@@ -3061,12 +3057,12 @@
         <v>20150412</v>
       </c>
       <c r="F10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="27">
       <c r="A11" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -3078,15 +3074,15 @@
         <v>20150503</v>
       </c>
       <c r="F11" t="s">
+        <v>188</v>
+      </c>
+      <c r="G11" t="s">
         <v>189</v>
-      </c>
-      <c r="G11" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -3098,7 +3094,7 @@
         <v>20150501</v>
       </c>
       <c r="F12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/问题跟进列表/需求和问题列表.xlsx
+++ b/问题跟进列表/需求和问题列表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="192">
   <si>
     <t>系统自动提醒</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -566,10 +566,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>詹健鸣</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -579,10 +575,6 @@
   </si>
   <si>
     <t>知识库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1384,11 +1376,11 @@
       </c>
       <c r="D3" s="14">
         <f>COUNTIF(需求!$C$2:$C$50000,"否")</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3" s="16">
         <f>(C3-D3)/C3</f>
-        <v>0.6097560975609756</v>
+        <v>0.65853658536585369</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1596,11 +1588,11 @@
       </c>
       <c r="C14" s="14">
         <f>COUNTIFS(需求!C:C,"否",需求!G:G,B14)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" s="14">
         <f ca="1">COUNTIFS(需求!C:C,"否",需求!G:G,B14,需求!E:E,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="14">
         <f>COUNTIFS(问题!B:B,"否",问题!F:F,B14)</f>
@@ -1608,7 +1600,7 @@
       </c>
       <c r="F14" s="14">
         <f ca="1">COUNTIFS(问题!B:B,"否",问题!F:F,B14,问题!D:D,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="14">
         <f>COUNTIFS(运营!B:B,"否",运营!F:F,B14)</f>
@@ -1620,7 +1612,7 @@
       </c>
       <c r="I14" s="20">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J14" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -1653,7 +1645,7 @@
       </c>
       <c r="H15" s="14">
         <f ca="1">COUNTIFS(运营!B:B,"否",运营!F:F,B15,运营!D:D,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" s="20">
         <f t="shared" si="0"/>
@@ -1661,7 +1653,7 @@
       </c>
       <c r="J15" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1755,7 +1747,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1853,7 +1845,7 @@
         <v>69</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="27">
@@ -2004,7 +1996,7 @@
         <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D12" t="s">
         <v>65</v>
@@ -2058,13 +2050,13 @@
         <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D15" t="s">
         <v>65</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2281,7 +2273,7 @@
     </row>
     <row r="26" spans="1:8" ht="27">
       <c r="A26" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>90</v>
@@ -2296,10 +2288,10 @@
         <v>20150407</v>
       </c>
       <c r="G26" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="27">
@@ -2310,7 +2302,7 @@
         <v>98</v>
       </c>
       <c r="C27" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D27">
         <v>20150320</v>
@@ -2325,7 +2317,7 @@
         <v>92</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2422,7 +2414,7 @@
         <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="D32">
         <v>20150325</v>
@@ -2431,18 +2423,18 @@
         <v>20150414</v>
       </c>
       <c r="G32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="C33" t="s">
-        <v>139</v>
+        <v>11</v>
       </c>
       <c r="D33">
         <v>20150325</v>
@@ -2451,18 +2443,18 @@
         <v>20150601</v>
       </c>
       <c r="G33" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D34">
         <v>20150327</v>
@@ -2471,12 +2463,12 @@
         <v>20150407</v>
       </c>
       <c r="G34" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="96" customHeight="1">
       <c r="A35" s="21" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>50</v>
@@ -2491,12 +2483,12 @@
         <v>20150407</v>
       </c>
       <c r="G35" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="12.75" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>46</v>
@@ -2511,18 +2503,18 @@
         <v>20150501</v>
       </c>
       <c r="G36" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="28.5" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C37" t="s">
         <v>10</v>
@@ -2542,10 +2534,10 @@
     </row>
     <row r="38" spans="1:8" ht="12.75" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C38" t="s">
         <v>11</v>
@@ -2562,10 +2554,10 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C39" t="s">
         <v>11</v>
@@ -2582,7 +2574,7 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>109</v>
@@ -2597,12 +2589,12 @@
         <v>20150413</v>
       </c>
       <c r="G40" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>90</v>
@@ -2617,15 +2609,15 @@
         <v>20150421</v>
       </c>
       <c r="G41" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C42" t="s">
         <v>10</v>
@@ -2637,7 +2629,7 @@
         <v>20150421</v>
       </c>
       <c r="G42" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2808,15 +2800,15 @@
         <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C9">
         <v>20150410</v>
@@ -2828,12 +2820,12 @@
         <v>20150411</v>
       </c>
       <c r="F9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="27">
       <c r="A10" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -2845,7 +2837,7 @@
         <v>20150414</v>
       </c>
       <c r="F10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -3020,7 +3012,7 @@
         <v>70</v>
       </c>
       <c r="G8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="27">
@@ -3045,10 +3037,10 @@
     </row>
     <row r="10" spans="1:7" ht="27">
       <c r="A10" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C10">
         <v>20150409</v>
@@ -3057,12 +3049,12 @@
         <v>20150412</v>
       </c>
       <c r="F10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="27">
       <c r="A11" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -3074,15 +3066,15 @@
         <v>20150503</v>
       </c>
       <c r="F11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -3094,7 +3086,7 @@
         <v>20150501</v>
       </c>
       <c r="F12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -3127,7 +3119,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>8</v>
@@ -3150,10 +3142,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C2">
         <v>20150410</v>
@@ -3162,15 +3154,15 @@
         <v>20150430</v>
       </c>
       <c r="F2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C3">
         <v>20150410</v>
@@ -3179,21 +3171,21 @@
         <v>20150417</v>
       </c>
       <c r="F3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C4">
         <v>20150410</v>
       </c>
       <c r="F4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/问题跟进列表/需求和问题列表.xlsx
+++ b/问题跟进列表/需求和问题列表.xlsx
@@ -637,10 +637,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20150407，基本完成，但是多辆车显示问题暂未解决</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>在代办单里，也支持订单的高级查询</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -790,6 +786,10 @@
   </si>
   <si>
     <t>谢创基</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20150407，基本完成，但是多辆车显示问题暂未解决 -- 已解决</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="D14" s="14">
         <f ca="1">COUNTIFS(需求!C:C,"否",需求!G:G,B14,需求!E:E,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E14" s="14">
         <f>COUNTIFS(问题!B:B,"否",问题!F:F,B14)</f>
@@ -1616,7 +1616,7 @@
       </c>
       <c r="J14" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1746,8 +1746,8 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32:XFD32"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1845,7 +1845,7 @@
         <v>69</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="27">
@@ -2291,7 +2291,7 @@
         <v>148</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="27">
@@ -2414,7 +2414,7 @@
         <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D32">
         <v>20150325</v>
@@ -2488,7 +2488,7 @@
     </row>
     <row r="36" spans="1:8" ht="12.75" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>46</v>
@@ -2511,7 +2511,7 @@
     </row>
     <row r="37" spans="1:8" ht="28.5" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>147</v>
@@ -2534,13 +2534,13 @@
     </row>
     <row r="38" spans="1:8" ht="12.75" customHeight="1">
       <c r="A38" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D38">
         <v>20150403</v>
@@ -2554,10 +2554,10 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="C39" t="s">
         <v>11</v>
@@ -2574,7 +2574,7 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>109</v>
@@ -2589,12 +2589,12 @@
         <v>20150413</v>
       </c>
       <c r="G40" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>90</v>
@@ -2609,15 +2609,15 @@
         <v>20150421</v>
       </c>
       <c r="G41" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="C42" t="s">
         <v>10</v>
@@ -2629,7 +2629,7 @@
         <v>20150421</v>
       </c>
       <c r="G42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2805,10 +2805,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" t="s">
         <v>175</v>
-      </c>
-      <c r="B9" t="s">
-        <v>176</v>
       </c>
       <c r="C9">
         <v>20150410</v>
@@ -2820,12 +2820,12 @@
         <v>20150411</v>
       </c>
       <c r="F9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="27">
       <c r="A10" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -2837,7 +2837,7 @@
         <v>20150414</v>
       </c>
       <c r="F10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -3012,7 +3012,7 @@
         <v>70</v>
       </c>
       <c r="G8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="27">
@@ -3037,10 +3037,10 @@
     </row>
     <row r="10" spans="1:7" ht="27">
       <c r="A10" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B10" t="s">
         <v>182</v>
-      </c>
-      <c r="B10" t="s">
-        <v>183</v>
       </c>
       <c r="C10">
         <v>20150409</v>
@@ -3049,12 +3049,12 @@
         <v>20150412</v>
       </c>
       <c r="F10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="27">
       <c r="A11" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -3066,15 +3066,15 @@
         <v>20150503</v>
       </c>
       <c r="F11" t="s">
+        <v>185</v>
+      </c>
+      <c r="G11" t="s">
         <v>186</v>
-      </c>
-      <c r="G11" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -3086,7 +3086,7 @@
         <v>20150501</v>
       </c>
       <c r="F12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -3119,7 +3119,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>8</v>
@@ -3142,10 +3142,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" t="s">
         <v>160</v>
-      </c>
-      <c r="B2" t="s">
-        <v>161</v>
       </c>
       <c r="C2">
         <v>20150410</v>
@@ -3154,15 +3154,15 @@
         <v>20150430</v>
       </c>
       <c r="F2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" t="s">
         <v>163</v>
-      </c>
-      <c r="B3" t="s">
-        <v>164</v>
       </c>
       <c r="C3">
         <v>20150410</v>
@@ -3171,21 +3171,21 @@
         <v>20150417</v>
       </c>
       <c r="F3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" t="s">
         <v>166</v>
-      </c>
-      <c r="B4" t="s">
-        <v>167</v>
       </c>
       <c r="C4">
         <v>20150410</v>
       </c>
       <c r="F4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/问题跟进列表/需求和问题列表.xlsx
+++ b/问题跟进列表/需求和问题列表.xlsx
@@ -14,14 +14,14 @@
     <sheet name="其他人员配合任务" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">需求!$A$1:$H$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">需求!$A$1:$H$42</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="212">
   <si>
     <t>系统自动提醒</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -566,6 +566,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>詹健鸣</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -578,6 +582,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>杨蓉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -637,6 +645,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>20150407，基本完成，但是多辆车显示问题暂未解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>在代办单里，也支持订单的高级查询</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -789,7 +801,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20150407，基本完成，但是多辆车显示问题暂未解决 -- 已解决</t>
+    <t>E车险的工牌设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢创基</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香车会的服务人员（兼中介功能）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄咏仪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘建斌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E车险的专利申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有图片支持预览</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客服人员：钟琪。已经沟通完了相关内容，后续跟进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月15日：2周之内给出客户资源和明显会员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待上载</t>
+  </si>
+  <si>
+    <t>修改商品包，基础商品，业务流程时，增加判断，如果有相关的业务正在处理中，则不可以修改，提醒其有哪些业务单是进行中，不能修改。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">在业务单处理和业务单流查看，订单查询界面，都增加点击名字后进入客户360视图。现在这三个页面的姓名那里明明是超链接的方式显示，但是都点击无用的。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詹健鸣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单查询界面，增加业务类型显示列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该基础商品的上次使用时间+商品有效时间-到期提醒时间（上面截图配置的）就是系统需要触发提醒的时间。新开了一个提醒页面，目前是实时查询的，如果是商品包的到期，就用高级查询去查。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -797,7 +877,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -827,6 +910,13 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -954,10 +1044,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -988,12 +1081,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1341,7 +1436,7 @@
   <dimension ref="A2:P17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1372,15 +1467,15 @@
       </c>
       <c r="C3" s="14">
         <f>COUNTA(需求!A2:A50000)</f>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D3" s="14">
         <f>COUNTIF(需求!$C$2:$C$50000,"否")</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3" s="16">
         <f>(C3-D3)/C3</f>
-        <v>0.65853658536585369</v>
+        <v>0.63636363636363635</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1393,11 +1488,11 @@
       </c>
       <c r="D4" s="14">
         <f>COUNTIF(问题!$B$2:$B$50000,"否")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="16">
         <f>(C4-D4)/C4</f>
-        <v>0.88888888888888884</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1406,19 +1501,19 @@
       </c>
       <c r="C5" s="14">
         <f>COUNTA(运营!A2:A50000)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5" s="14">
         <f>COUNTIF(运营!$B$2:$B$49999,"否")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" s="16">
         <f>(C5-D5)/C5</f>
-        <v>0.36363636363636365</v>
+        <v>0.38461538461538464</v>
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="23" t="s">
         <v>96</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -1440,7 +1535,7 @@
       <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="22"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="8" t="s">
         <v>94</v>
       </c>
@@ -1460,7 +1555,7 @@
       <c r="P8" s="10"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="22"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="11" t="s">
         <v>95</v>
       </c>
@@ -1518,7 +1613,7 @@
       </c>
       <c r="D12" s="14">
         <f ca="1">COUNTIFS(需求!C:C,"否",需求!G:G,B12,需求!E:E,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="14">
         <f>COUNTIFS(问题!B:B,"否",问题!F:F,B12)</f>
@@ -1542,7 +1637,7 @@
       </c>
       <c r="J12" s="20">
         <f ca="1">SUM(D12,F12,H12)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1567,7 +1662,7 @@
       </c>
       <c r="G13" s="14">
         <f>COUNTIFS(运营!B:B,"否",运营!F:F,B13)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13" s="14">
         <f ca="1">COUNTIFS(运营!B:B,"否",运营!F:F,B13,运营!D:D,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
@@ -1575,7 +1670,7 @@
       </c>
       <c r="I13" s="20">
         <f t="shared" ref="I13:I17" si="0">SUM(C13,E13,G13)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" s="20">
         <f t="shared" ref="J13:J17" ca="1" si="1">SUM(D13,F13,H13)</f>
@@ -1588,19 +1683,19 @@
       </c>
       <c r="C14" s="14">
         <f>COUNTIFS(需求!C:C,"否",需求!G:G,B14)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D14" s="14">
         <f ca="1">COUNTIFS(需求!C:C,"否",需求!G:G,B14,需求!E:E,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14" s="14">
         <f>COUNTIFS(问题!B:B,"否",问题!F:F,B14)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="14">
         <f ca="1">COUNTIFS(问题!B:B,"否",问题!F:F,B14,问题!D:D,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="14">
         <f>COUNTIFS(运营!B:B,"否",运营!F:F,B14)</f>
@@ -1612,7 +1707,7 @@
       </c>
       <c r="I14" s="20">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J14" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -1625,7 +1720,7 @@
       </c>
       <c r="C15" s="14">
         <f>COUNTIFS(需求!C:C,"否",需求!G:G,B15)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" s="14">
         <f ca="1">COUNTIFS(需求!C:C,"否",需求!G:G,B15,需求!E:E,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
@@ -1649,7 +1744,7 @@
       </c>
       <c r="I15" s="20">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J15" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -1662,11 +1757,11 @@
       </c>
       <c r="C16" s="14">
         <f>COUNTIFS(需求!C:C,"否",需求!G:G,B16)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="14">
         <f ca="1">COUNTIFS(需求!C:C,"否",需求!G:G,B16,需求!E:E,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="14">
         <f>COUNTIFS(问题!B:B,"否",问题!F:F,B16)</f>
@@ -1686,11 +1781,11 @@
       </c>
       <c r="I16" s="20">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:10">
@@ -1743,11 +1838,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1788,7 +1883,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="40.5">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1796,7 +1891,7 @@
         <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>204</v>
       </c>
       <c r="D2" t="s">
         <v>66</v>
@@ -1804,8 +1899,14 @@
       <c r="E2">
         <v>20150407</v>
       </c>
+      <c r="F2">
+        <v>20150425</v>
+      </c>
       <c r="G2" t="s">
         <v>68</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1845,7 +1946,7 @@
         <v>69</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="27">
@@ -1996,7 +2097,7 @@
         <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D12" t="s">
         <v>65</v>
@@ -2030,7 +2131,7 @@
         <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
         <v>65</v>
@@ -2050,13 +2151,13 @@
         <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D15" t="s">
         <v>65</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2273,7 +2374,7 @@
     </row>
     <row r="26" spans="1:8" ht="27">
       <c r="A26" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>90</v>
@@ -2288,10 +2389,10 @@
         <v>20150407</v>
       </c>
       <c r="G26" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>191</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="27">
@@ -2302,7 +2403,7 @@
         <v>98</v>
       </c>
       <c r="C27" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D27">
         <v>20150320</v>
@@ -2317,7 +2418,7 @@
         <v>92</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2414,7 +2515,7 @@
         <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="D32">
         <v>20150325</v>
@@ -2423,18 +2524,18 @@
         <v>20150414</v>
       </c>
       <c r="G32" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="D33">
         <v>20150325</v>
@@ -2443,18 +2544,18 @@
         <v>20150601</v>
       </c>
       <c r="G33" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C34" t="s">
-        <v>10</v>
+        <v>178</v>
       </c>
       <c r="D34">
         <v>20150327</v>
@@ -2462,13 +2563,19 @@
       <c r="E34">
         <v>20150407</v>
       </c>
+      <c r="F34">
+        <v>20150407</v>
+      </c>
       <c r="G34" t="s">
-        <v>142</v>
+        <v>144</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="96" customHeight="1">
       <c r="A35" s="21" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>50</v>
@@ -2483,12 +2590,12 @@
         <v>20150407</v>
       </c>
       <c r="G35" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="12.75" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>46</v>
@@ -2503,18 +2610,18 @@
         <v>20150501</v>
       </c>
       <c r="G36" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="28.5" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C37" t="s">
         <v>10</v>
@@ -2534,13 +2641,13 @@
     </row>
     <row r="38" spans="1:8" ht="12.75" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D38">
         <v>20150403</v>
@@ -2554,10 +2661,10 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C39" t="s">
         <v>11</v>
@@ -2574,7 +2681,7 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>109</v>
@@ -2586,15 +2693,15 @@
         <v>20150410</v>
       </c>
       <c r="E40">
-        <v>20150413</v>
+        <v>20150513</v>
       </c>
       <c r="G40" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>90</v>
@@ -2609,18 +2716,18 @@
         <v>20150421</v>
       </c>
       <c r="G41" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C42" t="s">
-        <v>10</v>
+        <v>204</v>
       </c>
       <c r="D42">
         <v>20150411</v>
@@ -2629,11 +2736,71 @@
         <v>20150421</v>
       </c>
       <c r="G42" t="s">
-        <v>180</v>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="27">
+      <c r="A43" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43">
+        <v>20150425</v>
+      </c>
+      <c r="E43">
+        <v>20150503</v>
+      </c>
+      <c r="G43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="54">
+      <c r="A44" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" t="s">
+        <v>208</v>
+      </c>
+      <c r="D44">
+        <v>20150425</v>
+      </c>
+      <c r="E44">
+        <v>20150503</v>
+      </c>
+      <c r="G44" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45">
+        <v>20150425</v>
+      </c>
+      <c r="E45">
+        <v>20150503</v>
+      </c>
+      <c r="G45" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H41"/>
+  <autoFilter ref="A1:H42"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
@@ -2651,7 +2818,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2800,15 +2967,15 @@
         <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B9" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C9">
         <v>20150410</v>
@@ -2820,15 +2987,15 @@
         <v>20150411</v>
       </c>
       <c r="F9" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="27">
       <c r="A10" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>204</v>
       </c>
       <c r="C10">
         <v>20150411</v>
@@ -2837,14 +3004,14 @@
         <v>20150414</v>
       </c>
       <c r="F10" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
-      <formula1>"是,否"</formula1>
+      <formula1>"是,否,挂起,待上载"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2853,11 +3020,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3012,7 +3179,7 @@
         <v>70</v>
       </c>
       <c r="G8" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="27">
@@ -3037,10 +3204,10 @@
     </row>
     <row r="10" spans="1:7" ht="27">
       <c r="A10" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B10" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C10">
         <v>20150409</v>
@@ -3049,12 +3216,12 @@
         <v>20150412</v>
       </c>
       <c r="F10" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="27">
       <c r="A11" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -3066,15 +3233,15 @@
         <v>20150503</v>
       </c>
       <c r="F11" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G11" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -3086,7 +3253,41 @@
         <v>20150501</v>
       </c>
       <c r="F12" t="s">
-        <v>190</v>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>20150414</v>
+      </c>
+      <c r="D13">
+        <v>20150430</v>
+      </c>
+      <c r="F13" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B14" t="s">
+        <v>196</v>
+      </c>
+      <c r="C14">
+        <v>20150414</v>
+      </c>
+      <c r="D14">
+        <v>20150601</v>
+      </c>
+      <c r="F14" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -3102,10 +3303,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3115,11 +3316,12 @@
     <col min="4" max="4" width="13.75" customWidth="1"/>
     <col min="5" max="5" width="15.125" customWidth="1"/>
     <col min="6" max="6" width="30.375" customWidth="1"/>
+    <col min="7" max="7" width="45.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>8</v>
@@ -3142,10 +3344,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C2">
         <v>20150410</v>
@@ -3154,15 +3356,15 @@
         <v>20150430</v>
       </c>
       <c r="F2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C3">
         <v>20150410</v>
@@ -3171,23 +3373,53 @@
         <v>20150417</v>
       </c>
       <c r="F3" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C4">
         <v>20150410</v>
       </c>
+      <c r="D4">
+        <v>20150504</v>
+      </c>
       <c r="F4" t="s">
-        <v>167</v>
-      </c>
-    </row>
+        <v>170</v>
+      </c>
+      <c r="G4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5">
+        <v>20150413</v>
+      </c>
+      <c r="D5">
+        <v>20150415</v>
+      </c>
+      <c r="E5">
+        <v>20150415</v>
+      </c>
+      <c r="F5" t="s">
+        <v>198</v>
+      </c>
+      <c r="G5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="22" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">

--- a/问题跟进列表/需求和问题列表.xlsx
+++ b/问题跟进列表/需求和问题列表.xlsx
@@ -14,14 +14,14 @@
     <sheet name="其他人员配合任务" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">需求!$A$1:$H$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">需求!$A$1:$H$45</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="218">
   <si>
     <t>系统自动提醒</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -717,10 +717,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>业务单的客户资料里增加弹出框可以看到更多的客户信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>詹健鸣</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -869,7 +865,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>业务单的客户资料里增加弹出框可以看到更多的客户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>该基础商品的上次使用时间+商品有效时间-到期提醒时间（上面截图配置的）就是系统需要触发提醒的时间。新开了一个提醒页面，目前是实时查询的，如果是商品包的到期，就用高级查询去查。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水机的微信运营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水机的线下活动要求安排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘建斌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢创基</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户360页面，对于已经完结的历史单也需要能展开看到历史记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1467,7 +1491,7 @@
       </c>
       <c r="C3" s="14">
         <f>COUNTA(需求!A2:A50000)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3" s="14">
         <f>COUNTIF(需求!$C$2:$C$50000,"否")</f>
@@ -1475,7 +1499,7 @@
       </c>
       <c r="E3" s="16">
         <f>(C3-D3)/C3</f>
-        <v>0.63636363636363635</v>
+        <v>0.64444444444444449</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1501,15 +1525,15 @@
       </c>
       <c r="C5" s="14">
         <f>COUNTA(运营!A2:A50000)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" s="14">
         <f>COUNTIF(运营!$B$2:$B$49999,"否")</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E5" s="16">
         <f>(C5-D5)/C5</f>
-        <v>0.38461538461538464</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1613,7 +1637,7 @@
       </c>
       <c r="D12" s="14">
         <f ca="1">COUNTIFS(需求!C:C,"否",需求!G:G,B12,需求!E:E,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="14">
         <f>COUNTIFS(问题!B:B,"否",问题!F:F,B12)</f>
@@ -1637,7 +1661,7 @@
       </c>
       <c r="J12" s="20">
         <f ca="1">SUM(D12,F12,H12)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1662,7 +1686,7 @@
       </c>
       <c r="G13" s="14">
         <f>COUNTIFS(运营!B:B,"否",运营!F:F,B13)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H13" s="14">
         <f ca="1">COUNTIFS(运营!B:B,"否",运营!F:F,B13,运营!D:D,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
@@ -1670,7 +1694,7 @@
       </c>
       <c r="I13" s="20">
         <f t="shared" ref="I13:I17" si="0">SUM(C13,E13,G13)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J13" s="20">
         <f t="shared" ref="J13:J17" ca="1" si="1">SUM(D13,F13,H13)</f>
@@ -1687,7 +1711,7 @@
       </c>
       <c r="D14" s="14">
         <f ca="1">COUNTIFS(需求!C:C,"否",需求!G:G,B14,需求!E:E,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14" s="14">
         <f>COUNTIFS(问题!B:B,"否",问题!F:F,B14)</f>
@@ -1711,7 +1735,7 @@
       </c>
       <c r="J14" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1724,7 +1748,7 @@
       </c>
       <c r="D15" s="14">
         <f ca="1">COUNTIFS(需求!C:C,"否",需求!G:G,B15,需求!E:E,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E15" s="14">
         <f>COUNTIFS(问题!B:B,"否",问题!F:F,B15)</f>
@@ -1736,19 +1760,19 @@
       </c>
       <c r="G15" s="14">
         <f>COUNTIFS(运营!B:B,"否",运营!F:F,B15)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H15" s="14">
         <f ca="1">COUNTIFS(运营!B:B,"否",运营!F:F,B15,运营!D:D,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I15" s="20">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J15" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1798,7 +1822,7 @@
       </c>
       <c r="D17" s="14">
         <f ca="1">COUNTIFS(需求!C:C,"否",需求!G:G,B17,需求!E:E,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="14">
         <f>COUNTIFS(问题!B:B,"否",问题!F:F,B17)</f>
@@ -1822,7 +1846,7 @@
       </c>
       <c r="J17" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1838,11 +1862,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1891,7 +1915,7 @@
         <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>204</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>66</v>
@@ -2555,7 +2579,7 @@
         <v>143</v>
       </c>
       <c r="C34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D34">
         <v>20150327</v>
@@ -2570,7 +2594,7 @@
         <v>144</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="96" customHeight="1">
@@ -2595,7 +2619,7 @@
     </row>
     <row r="36" spans="1:8" ht="12.75" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>46</v>
@@ -2618,7 +2642,7 @@
     </row>
     <row r="37" spans="1:8" ht="28.5" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>149</v>
@@ -2647,7 +2671,7 @@
         <v>157</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D38">
         <v>20150403</v>
@@ -2701,7 +2725,7 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>90</v>
@@ -2716,18 +2740,18 @@
         <v>20150421</v>
       </c>
       <c r="G41" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="C42" t="s">
-        <v>204</v>
+        <v>10</v>
       </c>
       <c r="D42">
         <v>20150411</v>
@@ -2735,16 +2759,19 @@
       <c r="E42">
         <v>20150421</v>
       </c>
+      <c r="F42">
+        <v>20150425</v>
+      </c>
       <c r="G42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="27">
       <c r="A43" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="C43" t="s">
         <v>11</v>
@@ -2761,13 +2788,13 @@
     </row>
     <row r="44" spans="1:8" ht="54">
       <c r="A44" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D44">
         <v>20150425</v>
@@ -2776,12 +2803,12 @@
         <v>20150503</v>
       </c>
       <c r="G44" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>46</v>
@@ -2799,8 +2826,28 @@
         <v>62</v>
       </c>
     </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46">
+        <v>20150501</v>
+      </c>
+      <c r="E46">
+        <v>20150510</v>
+      </c>
+      <c r="G46" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H42"/>
+  <autoFilter ref="A1:H45"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
@@ -2972,10 +3019,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" t="s">
         <v>177</v>
-      </c>
-      <c r="B9" t="s">
-        <v>178</v>
       </c>
       <c r="C9">
         <v>20150410</v>
@@ -2987,15 +3034,15 @@
         <v>20150411</v>
       </c>
       <c r="F9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="27">
       <c r="A10" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C10">
         <v>20150411</v>
@@ -3004,7 +3051,7 @@
         <v>20150414</v>
       </c>
       <c r="F10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -3020,11 +3067,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3179,7 +3226,7 @@
         <v>70</v>
       </c>
       <c r="G8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="27">
@@ -3204,10 +3251,10 @@
     </row>
     <row r="10" spans="1:7" ht="27">
       <c r="A10" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B10" t="s">
         <v>184</v>
-      </c>
-      <c r="B10" t="s">
-        <v>185</v>
       </c>
       <c r="C10">
         <v>20150409</v>
@@ -3216,12 +3263,12 @@
         <v>20150412</v>
       </c>
       <c r="F10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="27">
       <c r="A11" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -3233,15 +3280,15 @@
         <v>20150503</v>
       </c>
       <c r="F11" t="s">
+        <v>187</v>
+      </c>
+      <c r="G11" t="s">
         <v>188</v>
-      </c>
-      <c r="G11" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -3253,12 +3300,12 @@
         <v>20150501</v>
       </c>
       <c r="F12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -3270,15 +3317,15 @@
         <v>20150430</v>
       </c>
       <c r="F13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C14">
         <v>20150414</v>
@@ -3287,7 +3334,41 @@
         <v>20150601</v>
       </c>
       <c r="F14" t="s">
-        <v>199</v>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>20150430</v>
+      </c>
+      <c r="D15">
+        <v>20150515</v>
+      </c>
+      <c r="F15" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>20150430</v>
+      </c>
+      <c r="D16">
+        <v>20150507</v>
+      </c>
+      <c r="F16" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -3393,12 +3474,12 @@
         <v>170</v>
       </c>
       <c r="G4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B5" t="s">
         <v>49</v>
@@ -3413,10 +3494,10 @@
         <v>20150415</v>
       </c>
       <c r="F5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="22" customFormat="1"/>

--- a/问题跟进列表/需求和问题列表.xlsx
+++ b/问题跟进列表/需求和问题列表.xlsx
@@ -618,10 +618,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>研究系统对接性，系统选型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>知识库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -894,6 +890,10 @@
   </si>
   <si>
     <t>知识库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究系统对接性，系统选型。结果：使用E车险用的那个短信平台</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1495,11 +1495,11 @@
       </c>
       <c r="D3" s="14">
         <f>COUNTIF(需求!$C$2:$C$50000,"否")</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="16">
         <f>(C3-D3)/C3</f>
-        <v>0.64444444444444449</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="H13" s="14">
         <f ca="1">COUNTIFS(运营!B:B,"否",运营!F:F,B13,运营!D:D,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="20">
         <f t="shared" ref="I13:I17" si="0">SUM(C13,E13,G13)</f>
@@ -1698,7 +1698,7 @@
       </c>
       <c r="J13" s="20">
         <f t="shared" ref="J13:J17" ca="1" si="1">SUM(D13,F13,H13)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1711,7 +1711,7 @@
       </c>
       <c r="D14" s="14">
         <f ca="1">COUNTIFS(需求!C:C,"否",需求!G:G,B14,需求!E:E,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E14" s="14">
         <f>COUNTIFS(问题!B:B,"否",问题!F:F,B14)</f>
@@ -1735,7 +1735,7 @@
       </c>
       <c r="J14" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1744,11 +1744,11 @@
       </c>
       <c r="C15" s="14">
         <f>COUNTIFS(需求!C:C,"否",需求!G:G,B15)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" s="14">
         <f ca="1">COUNTIFS(需求!C:C,"否",需求!G:G,B15,需求!E:E,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" s="14">
         <f>COUNTIFS(问题!B:B,"否",问题!F:F,B15)</f>
@@ -1768,11 +1768,11 @@
       </c>
       <c r="I15" s="20">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J15" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1864,9 +1864,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1930,7 +1930,7 @@
         <v>68</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1970,7 +1970,7 @@
         <v>69</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="27">
@@ -2121,7 +2121,7 @@
         <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D12" t="s">
         <v>65</v>
@@ -2175,13 +2175,13 @@
         <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D15" t="s">
         <v>65</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2398,7 +2398,7 @@
     </row>
     <row r="26" spans="1:8" ht="27">
       <c r="A26" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>90</v>
@@ -2413,10 +2413,10 @@
         <v>20150407</v>
       </c>
       <c r="G26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="27">
@@ -2427,7 +2427,7 @@
         <v>98</v>
       </c>
       <c r="C27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D27">
         <v>20150320</v>
@@ -2442,7 +2442,7 @@
         <v>92</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2579,7 +2579,7 @@
         <v>143</v>
       </c>
       <c r="C34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D34">
         <v>20150327</v>
@@ -2594,7 +2594,7 @@
         <v>144</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="96" customHeight="1">
@@ -2619,13 +2619,13 @@
     </row>
     <row r="36" spans="1:8" ht="12.75" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D36">
         <v>20150402</v>
@@ -2637,15 +2637,15 @@
         <v>147</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>148</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="28.5" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C37" t="s">
         <v>10</v>
@@ -2665,10 +2665,10 @@
     </row>
     <row r="38" spans="1:8" ht="12.75" customHeight="1">
       <c r="A38" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="C38" t="s">
         <v>10</v>
@@ -2685,10 +2685,10 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="C39" t="s">
         <v>11</v>
@@ -2705,7 +2705,7 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>109</v>
@@ -2720,12 +2720,12 @@
         <v>20150513</v>
       </c>
       <c r="G40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>90</v>
@@ -2740,15 +2740,15 @@
         <v>20150421</v>
       </c>
       <c r="G41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="C42" t="s">
         <v>10</v>
@@ -2763,15 +2763,15 @@
         <v>20150425</v>
       </c>
       <c r="G42" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="27">
       <c r="A43" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="C43" t="s">
         <v>11</v>
@@ -2788,13 +2788,13 @@
     </row>
     <row r="44" spans="1:8" ht="54">
       <c r="A44" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D44">
         <v>20150425</v>
@@ -2803,12 +2803,12 @@
         <v>20150503</v>
       </c>
       <c r="G44" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>46</v>
@@ -2828,10 +2828,10 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="C46" t="s">
         <v>11</v>
@@ -3019,10 +3019,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B9" t="s">
         <v>176</v>
-      </c>
-      <c r="B9" t="s">
-        <v>177</v>
       </c>
       <c r="C9">
         <v>20150410</v>
@@ -3034,15 +3034,15 @@
         <v>20150411</v>
       </c>
       <c r="F9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="27">
       <c r="A10" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C10">
         <v>20150411</v>
@@ -3051,7 +3051,7 @@
         <v>20150414</v>
       </c>
       <c r="F10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -3226,7 +3226,7 @@
         <v>70</v>
       </c>
       <c r="G8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="27">
@@ -3251,10 +3251,10 @@
     </row>
     <row r="10" spans="1:7" ht="27">
       <c r="A10" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B10" t="s">
         <v>183</v>
-      </c>
-      <c r="B10" t="s">
-        <v>184</v>
       </c>
       <c r="C10">
         <v>20150409</v>
@@ -3263,12 +3263,12 @@
         <v>20150412</v>
       </c>
       <c r="F10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="27">
       <c r="A11" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -3280,15 +3280,15 @@
         <v>20150503</v>
       </c>
       <c r="F11" t="s">
+        <v>186</v>
+      </c>
+      <c r="G11" t="s">
         <v>187</v>
-      </c>
-      <c r="G11" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -3300,12 +3300,12 @@
         <v>20150501</v>
       </c>
       <c r="F12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -3317,15 +3317,15 @@
         <v>20150430</v>
       </c>
       <c r="F13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C14">
         <v>20150414</v>
@@ -3334,12 +3334,12 @@
         <v>20150601</v>
       </c>
       <c r="F14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
@@ -3351,12 +3351,12 @@
         <v>20150515</v>
       </c>
       <c r="F15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
@@ -3368,7 +3368,7 @@
         <v>20150507</v>
       </c>
       <c r="F16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -3402,7 +3402,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>8</v>
@@ -3425,10 +3425,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" t="s">
         <v>162</v>
-      </c>
-      <c r="B2" t="s">
-        <v>163</v>
       </c>
       <c r="C2">
         <v>20150410</v>
@@ -3437,15 +3437,15 @@
         <v>20150430</v>
       </c>
       <c r="F2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" t="s">
         <v>165</v>
-      </c>
-      <c r="B3" t="s">
-        <v>166</v>
       </c>
       <c r="C3">
         <v>20150410</v>
@@ -3454,15 +3454,15 @@
         <v>20150417</v>
       </c>
       <c r="F3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" t="s">
         <v>168</v>
-      </c>
-      <c r="B4" t="s">
-        <v>169</v>
       </c>
       <c r="C4">
         <v>20150410</v>
@@ -3471,15 +3471,15 @@
         <v>20150504</v>
       </c>
       <c r="F4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B5" t="s">
         <v>49</v>
@@ -3494,10 +3494,10 @@
         <v>20150415</v>
       </c>
       <c r="F5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="22" customFormat="1"/>

--- a/问题跟进列表/需求和问题列表.xlsx
+++ b/问题跟进列表/需求和问题列表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="217">
   <si>
     <t>系统自动提醒</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -846,10 +846,6 @@
   <si>
     <t xml:space="preserve">在业务单处理和业务单流查看，订单查询界面，都增加点击名字后进入客户360视图。现在这三个页面的姓名那里明明是超链接的方式显示，但是都点击无用的。
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1495,11 +1491,11 @@
       </c>
       <c r="D3" s="14">
         <f>COUNTIF(需求!$C$2:$C$50000,"否")</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3" s="16">
         <f>(C3-D3)/C3</f>
-        <v>0.66666666666666663</v>
+        <v>0.71111111111111114</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1690,7 +1686,7 @@
       </c>
       <c r="H13" s="14">
         <f ca="1">COUNTIFS(运营!B:B,"否",运营!F:F,B13,运营!D:D,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" s="20">
         <f t="shared" ref="I13:I17" si="0">SUM(C13,E13,G13)</f>
@@ -1698,7 +1694,7 @@
       </c>
       <c r="J13" s="20">
         <f t="shared" ref="J13:J17" ca="1" si="1">SUM(D13,F13,H13)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1707,11 +1703,11 @@
       </c>
       <c r="C14" s="14">
         <f>COUNTIFS(需求!C:C,"否",需求!G:G,B14)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D14" s="14">
         <f ca="1">COUNTIFS(需求!C:C,"否",需求!G:G,B14,需求!E:E,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E14" s="14">
         <f>COUNTIFS(问题!B:B,"否",问题!F:F,B14)</f>
@@ -1731,11 +1727,11 @@
       </c>
       <c r="I14" s="20">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J14" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1865,8 +1861,8 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16:XFD16"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1930,7 +1926,7 @@
         <v>68</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2637,7 +2633,7 @@
         <v>147</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="28.5" customHeight="1">
@@ -2725,7 +2721,7 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>90</v>
@@ -2794,7 +2790,7 @@
         <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>206</v>
+        <v>10</v>
       </c>
       <c r="D44">
         <v>20150425</v>
@@ -2803,18 +2799,18 @@
         <v>20150503</v>
       </c>
       <c r="G44" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D45">
         <v>20150425</v>
@@ -2828,10 +2824,10 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="C46" t="s">
         <v>11</v>
@@ -3339,7 +3335,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
@@ -3351,12 +3347,12 @@
         <v>20150515</v>
       </c>
       <c r="F15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
@@ -3368,7 +3364,7 @@
         <v>20150507</v>
       </c>
       <c r="F16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/问题跟进列表/需求和问题列表.xlsx
+++ b/问题跟进列表/需求和问题列表.xlsx
@@ -1491,11 +1491,11 @@
       </c>
       <c r="D3" s="14">
         <f>COUNTIF(需求!$C$2:$C$50000,"否")</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="16">
         <f>(C3-D3)/C3</f>
-        <v>0.71111111111111114</v>
+        <v>0.73333333333333328</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1703,7 +1703,7 @@
       </c>
       <c r="C14" s="14">
         <f>COUNTIFS(需求!C:C,"否",需求!G:G,B14)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" s="14">
         <f ca="1">COUNTIFS(需求!C:C,"否",需求!G:G,B14,需求!E:E,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="I14" s="20">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J14" s="20">
         <f t="shared" ca="1" si="1"/>
@@ -1862,7 +1862,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
+      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2830,7 +2830,7 @@
         <v>215</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D46">
         <v>20150501</v>

--- a/问题跟进列表/需求和问题列表.xlsx
+++ b/问题跟进列表/需求和问题列表.xlsx
@@ -14,14 +14,14 @@
     <sheet name="其他人员配合任务" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">需求!$A$1:$H$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">需求!$A$1:$H$48</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="230">
   <si>
     <t>系统自动提醒</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -466,10 +466,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需求详细跟进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>谢创基</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -618,6 +614,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>研究系统对接性，系统选型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>知识库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -757,15 +757,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>杨蓉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里云和富力关于知识库的使用互换的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘建斌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先组织讨论方案，由于和E车险的在一起，所以要考虑两者不要有影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>360视图中，其他联系方式的界面位置太小，造成数据显示去不全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詹健鸣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司的LOGO等vi设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢创基</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E车险的工牌设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢创基</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>杨蓉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿里云和富力关于知识库的使用互换的问题</t>
+    <t>香车会的服务人员（兼中介功能）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄咏仪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -773,50 +813,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>先组织讨论方案，由于和E车险的在一起，所以要考虑两者不要有影响</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>360视图中，其他联系方式的界面位置太小，造成数据显示去不全</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>詹健鸣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司的LOGO等vi设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谢创基</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E车险的工牌设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谢创基</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香车会的服务人员（兼中介功能）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄咏仪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘建斌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>E车险的专利申请</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -831,9 +827,6 @@
   <si>
     <t>4月15日：2周之内给出客户资源和明显会员</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待上载</t>
   </si>
   <si>
     <t>修改商品包，基础商品，业务流程时，增加判断，如果有相关的业务正在处理中，则不可以修改，提醒其有哪些业务单是进行中，不能修改。</t>
@@ -889,7 +882,66 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>研究系统对接性，系统选型。结果：使用E车险用的那个短信平台</t>
+    <t>不属于新需求，本来就能实现，只是界面显示的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>域名，地址服务器，备案，搬迁等事宜的统筹和安排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢创基</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列入统筹安排项中（17行）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于改动较大，涉及面较多，先挂起，后续有时间再修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单流程页面，客户资料显示的完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求详细跟进，放入E车险中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨蓉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求细节完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待上载</t>
+  </si>
+  <si>
+    <t>附件上传需要支持批量选择上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詹健鸣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前的附件控件不支持，需要技术选型其他方式，有空后再做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转移到E车险单独的列表中跟进细节</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1135,8 +1187,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2562225</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>1149265</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>253915</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1487,15 +1539,15 @@
       </c>
       <c r="C3" s="14">
         <f>COUNTA(需求!A2:A50000)</f>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D3" s="14">
         <f>COUNTIF(需求!$C$2:$C$50000,"否")</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="16">
         <f>(C3-D3)/C3</f>
-        <v>0.73333333333333328</v>
+        <v>0.76595744680851063</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1521,15 +1573,15 @@
       </c>
       <c r="C5" s="14">
         <f>COUNTA(运营!A2:A50000)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="14">
         <f>COUNTIF(运营!$B$2:$B$49999,"否")</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E5" s="16">
         <f>(C5-D5)/C5</f>
-        <v>0.33333333333333331</v>
+        <v>0.5625</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1596,44 +1648,44 @@
     </row>
     <row r="11" spans="1:16">
       <c r="B11" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="D11" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="E11" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="F11" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="G11" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="H11" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="H11" s="18" t="s">
-        <v>123</v>
-      </c>
       <c r="I11" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="J11" s="19" t="s">
         <v>130</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="B12" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C12" s="14">
         <f>COUNTIFS(需求!C:C,"否",需求!G:G,B12)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" s="14">
         <f ca="1">COUNTIFS(需求!C:C,"否",需求!G:G,B12,需求!E:E,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="14">
         <f>COUNTIFS(问题!B:B,"否",问题!F:F,B12)</f>
@@ -1645,24 +1697,24 @@
       </c>
       <c r="G12" s="14">
         <f>COUNTIFS(运营!B:B,"否",运营!F:F,B12)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="14">
         <f ca="1">COUNTIFS(运营!B:B,"否",运营!F:F,B12,运营!D:D,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="20">
         <f>SUM(C12,E12,G12)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J12" s="20">
         <f ca="1">SUM(D12,F12,H12)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="B13" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C13" s="14">
         <f>COUNTIFS(需求!C:C,"否",需求!G:G,B13)</f>
@@ -1682,32 +1734,32 @@
       </c>
       <c r="G13" s="14">
         <f>COUNTIFS(运营!B:B,"否",运营!F:F,B13)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H13" s="14">
         <f ca="1">COUNTIFS(运营!B:B,"否",运营!F:F,B13,运营!D:D,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" s="20">
         <f t="shared" ref="I13:I17" si="0">SUM(C13,E13,G13)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J13" s="20">
         <f t="shared" ref="J13:J17" ca="1" si="1">SUM(D13,F13,H13)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="B14" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C14" s="14">
         <f>COUNTIFS(需求!C:C,"否",需求!G:G,B14)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" s="14">
         <f ca="1">COUNTIFS(需求!C:C,"否",需求!G:G,B14,需求!E:E,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14" s="14">
         <f>COUNTIFS(问题!B:B,"否",问题!F:F,B14)</f>
@@ -1727,24 +1779,24 @@
       </c>
       <c r="I14" s="20">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J14" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="B15" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C15" s="14">
         <f>COUNTIFS(需求!C:C,"否",需求!G:G,B15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" s="14">
         <f ca="1">COUNTIFS(需求!C:C,"否",需求!G:G,B15,需求!E:E,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="14">
         <f>COUNTIFS(问题!B:B,"否",问题!F:F,B15)</f>
@@ -1756,11 +1808,11 @@
       </c>
       <c r="G15" s="14">
         <f>COUNTIFS(运营!B:B,"否",运营!F:F,B15)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H15" s="14">
         <f ca="1">COUNTIFS(运营!B:B,"否",运营!F:F,B15,运营!D:D,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I15" s="20">
         <f t="shared" si="0"/>
@@ -1773,7 +1825,7 @@
     </row>
     <row r="16" spans="1:16">
       <c r="B16" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C16" s="14">
         <f>COUNTIFS(需求!C:C,"否",需求!G:G,B16)</f>
@@ -1810,7 +1862,7 @@
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C17" s="14">
         <f>COUNTIFS(需求!C:C,"否",需求!G:G,B17)</f>
@@ -1858,11 +1910,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H46"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1903,7 +1956,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="40.5">
+    <row r="2" spans="1:8" ht="40.5" hidden="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1926,10 +1979,10 @@
         <v>68</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" hidden="1">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1943,7 +1996,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="27">
+    <row r="4" spans="1:8" ht="27" hidden="1">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1969,7 +2022,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="27">
+    <row r="5" spans="1:8" ht="27" hidden="1">
       <c r="A5" s="2" t="s">
         <v>56</v>
       </c>
@@ -1992,7 +2045,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="27">
+    <row r="6" spans="1:8" ht="27" hidden="1">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -2012,7 +2065,7 @@
         <v>20140128</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="40.5">
+    <row r="7" spans="1:8" ht="40.5" hidden="1">
       <c r="A7" s="2" t="s">
         <v>39</v>
       </c>
@@ -2032,7 +2085,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" hidden="1">
       <c r="A8" s="2" t="s">
         <v>38</v>
       </c>
@@ -2052,7 +2105,7 @@
         <v>20140105</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="40.5">
+    <row r="9" spans="1:8" ht="40.5" hidden="1">
       <c r="A9" s="2" t="s">
         <v>54</v>
       </c>
@@ -2072,7 +2125,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="40.5">
+    <row r="10" spans="1:8" ht="40.5" hidden="1">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -2092,7 +2145,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" hidden="1">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
@@ -2109,7 +2162,7 @@
         <v>20141207</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" hidden="1">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -2126,7 +2179,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" hidden="1">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
@@ -2143,7 +2196,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" hidden="1">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
@@ -2163,7 +2216,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" hidden="1">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -2200,7 +2253,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="108">
+    <row r="17" spans="1:8" ht="108" hidden="1">
       <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
@@ -2283,7 +2336,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="27">
+    <row r="21" spans="1:8" ht="27" hidden="1">
       <c r="A21" s="1" t="s">
         <v>59</v>
       </c>
@@ -2303,7 +2356,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="27">
+    <row r="22" spans="1:8" ht="27" hidden="1">
       <c r="A22" s="1" t="s">
         <v>83</v>
       </c>
@@ -2326,7 +2379,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="27">
+    <row r="23" spans="1:8" ht="27" hidden="1">
       <c r="A23" s="1" t="s">
         <v>84</v>
       </c>
@@ -2349,7 +2402,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="27">
+    <row r="24" spans="1:8" ht="27" hidden="1">
       <c r="A24" s="1" t="s">
         <v>86</v>
       </c>
@@ -2372,7 +2425,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="27">
+    <row r="25" spans="1:8" ht="27" hidden="1">
       <c r="A25" s="1" t="s">
         <v>89</v>
       </c>
@@ -2392,7 +2445,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="27">
+    <row r="26" spans="1:8" ht="27" hidden="1">
       <c r="A26" s="1" t="s">
         <v>150</v>
       </c>
@@ -2415,7 +2468,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="27">
+    <row r="27" spans="1:8" ht="27" hidden="1">
       <c r="A27" s="1" t="s">
         <v>97</v>
       </c>
@@ -2441,7 +2494,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" hidden="1">
       <c r="A28" s="1" t="s">
         <v>99</v>
       </c>
@@ -2461,7 +2514,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="27">
+    <row r="29" spans="1:8" ht="27" hidden="1">
       <c r="A29" s="1" t="s">
         <v>101</v>
       </c>
@@ -2504,7 +2557,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" hidden="1">
       <c r="A31" s="1" t="s">
         <v>108</v>
       </c>
@@ -2512,7 +2565,7 @@
         <v>109</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D31">
         <v>20150325</v>
@@ -2524,18 +2577,18 @@
         <v>105</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>110</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D32">
         <v>20150325</v>
@@ -2544,18 +2597,18 @@
         <v>20150414</v>
       </c>
       <c r="G32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" t="s">
         <v>138</v>
-      </c>
-      <c r="C33" t="s">
-        <v>139</v>
       </c>
       <c r="D33">
         <v>20150325</v>
@@ -2564,15 +2617,15 @@
         <v>20150601</v>
       </c>
       <c r="G33" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" hidden="1">
       <c r="A34" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="C34" t="s">
         <v>176</v>
@@ -2587,15 +2640,15 @@
         <v>20150407</v>
       </c>
       <c r="G34" t="s">
+        <v>143</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="96" hidden="1" customHeight="1">
+      <c r="A35" s="21" t="s">
         <v>144</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="96" customHeight="1">
-      <c r="A35" s="21" t="s">
-        <v>145</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>50</v>
@@ -2610,7 +2663,7 @@
         <v>20150407</v>
       </c>
       <c r="G35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="12.75" customHeight="1">
@@ -2621,7 +2674,7 @@
         <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D36">
         <v>20150402</v>
@@ -2630,13 +2683,13 @@
         <v>20150501</v>
       </c>
       <c r="G36" t="s">
+        <v>146</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="28.5" customHeight="1">
+    </row>
+    <row r="37" spans="1:8" ht="28.5" hidden="1" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>178</v>
       </c>
@@ -2659,7 +2712,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="12.75" customHeight="1">
+    <row r="38" spans="1:8" ht="12.75" hidden="1" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>155</v>
       </c>
@@ -2693,7 +2746,7 @@
         <v>20150403</v>
       </c>
       <c r="E39">
-        <v>20150501</v>
+        <v>20150513</v>
       </c>
       <c r="G39" t="s">
         <v>81</v>
@@ -2707,7 +2760,7 @@
         <v>109</v>
       </c>
       <c r="C40" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="D40">
         <v>20150410</v>
@@ -2715,13 +2768,19 @@
       <c r="E40">
         <v>20150513</v>
       </c>
+      <c r="F40">
+        <v>20150515</v>
+      </c>
       <c r="G40" t="s">
         <v>171</v>
       </c>
+      <c r="H40" s="1" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>90</v>
@@ -2739,7 +2798,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" hidden="1">
       <c r="A42" s="1" t="s">
         <v>179</v>
       </c>
@@ -2762,15 +2821,15 @@
         <v>181</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="27">
+    <row r="43" spans="1:8" ht="27" hidden="1">
       <c r="A43" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="D43">
         <v>20150425</v>
@@ -2781,16 +2840,19 @@
       <c r="G43" t="s">
         <v>62</v>
       </c>
+      <c r="H43" s="1" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="44" spans="1:8" ht="54">
       <c r="A44" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>10</v>
+        <v>225</v>
       </c>
       <c r="D44">
         <v>20150425</v>
@@ -2798,19 +2860,22 @@
       <c r="E44">
         <v>20150503</v>
       </c>
+      <c r="F44">
+        <v>20150503</v>
+      </c>
       <c r="G44" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>10</v>
+        <v>225</v>
       </c>
       <c r="D45">
         <v>20150425</v>
@@ -2818,16 +2883,19 @@
       <c r="E45">
         <v>20150503</v>
       </c>
+      <c r="F45">
+        <v>20150503</v>
+      </c>
       <c r="G45" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" hidden="1">
       <c r="A46" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C46" t="s">
         <v>10</v>
@@ -2841,9 +2909,62 @@
       <c r="G46" t="s">
         <v>62</v>
       </c>
+      <c r="H46" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47">
+        <v>20150511</v>
+      </c>
+      <c r="E47">
+        <v>20150518</v>
+      </c>
+      <c r="G47" t="s">
+        <v>223</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" hidden="1">
+      <c r="A48" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" t="s">
+        <v>151</v>
+      </c>
+      <c r="D48">
+        <v>20150512</v>
+      </c>
+      <c r="G48" t="s">
+        <v>227</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>228</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H45"/>
+  <autoFilter ref="A1:H48">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="待上载"/>
+        <filter val="否"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
@@ -2861,7 +2982,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3010,7 +3131,7 @@
         <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3035,10 +3156,10 @@
     </row>
     <row r="10" spans="1:7" ht="27">
       <c r="A10" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B10" t="s">
-        <v>202</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>20150411</v>
@@ -3046,8 +3167,11 @@
       <c r="D10">
         <v>20150414</v>
       </c>
+      <c r="E10">
+        <v>20150411</v>
+      </c>
       <c r="F10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -3063,11 +3187,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3159,7 +3283,7 @@
         <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>76</v>
@@ -3167,16 +3291,19 @@
       <c r="D5">
         <v>20150415</v>
       </c>
+      <c r="E5">
+        <v>20150511</v>
+      </c>
       <c r="F5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>20150326</v>
@@ -3184,16 +3311,22 @@
       <c r="D6">
         <v>20150501</v>
       </c>
+      <c r="E6">
+        <v>20150511</v>
+      </c>
       <c r="F6" t="s">
         <v>70</v>
       </c>
+      <c r="G6" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" t="s">
         <v>113</v>
-      </c>
-      <c r="B7" t="s">
-        <v>114</v>
       </c>
       <c r="C7">
         <v>20150326</v>
@@ -3202,12 +3335,12 @@
         <v>20150501</v>
       </c>
       <c r="F7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -3227,7 +3360,7 @@
     </row>
     <row r="9" spans="1:7" ht="27">
       <c r="A9" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -3242,7 +3375,7 @@
         <v>20140327</v>
       </c>
       <c r="F9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="27">
@@ -3250,7 +3383,7 @@
         <v>182</v>
       </c>
       <c r="B10" t="s">
-        <v>183</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>20150409</v>
@@ -3258,16 +3391,19 @@
       <c r="D10">
         <v>20150412</v>
       </c>
+      <c r="E10">
+        <v>20150412</v>
+      </c>
       <c r="F10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="27">
       <c r="A11" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>20150411</v>
@@ -3275,16 +3411,19 @@
       <c r="D11">
         <v>20150503</v>
       </c>
+      <c r="E11">
+        <v>20150501</v>
+      </c>
       <c r="F11" t="s">
+        <v>185</v>
+      </c>
+      <c r="G11" t="s">
         <v>186</v>
-      </c>
-      <c r="G11" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -3296,12 +3435,12 @@
         <v>20150501</v>
       </c>
       <c r="F12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -3313,15 +3452,15 @@
         <v>20150430</v>
       </c>
       <c r="F13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C14">
         <v>20150414</v>
@@ -3330,12 +3469,12 @@
         <v>20150601</v>
       </c>
       <c r="F14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
@@ -3347,12 +3486,12 @@
         <v>20150515</v>
       </c>
       <c r="F15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
@@ -3364,7 +3503,24 @@
         <v>20150507</v>
       </c>
       <c r="F16" t="s">
-        <v>212</v>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="27">
+      <c r="A17" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B17" t="s">
+        <v>216</v>
+      </c>
+      <c r="C17">
+        <v>20150511</v>
+      </c>
+      <c r="D17">
+        <v>20150518</v>
+      </c>
+      <c r="F17" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -3470,12 +3626,12 @@
         <v>169</v>
       </c>
       <c r="G4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B5" t="s">
         <v>49</v>
@@ -3490,10 +3646,10 @@
         <v>20150415</v>
       </c>
       <c r="F5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="22" customFormat="1"/>

--- a/问题跟进列表/需求和问题列表.xlsx
+++ b/问题跟进列表/需求和问题列表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="233">
   <si>
     <t>系统自动提醒</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -942,6 +942,18 @@
   </si>
   <si>
     <t>转移到E车险单独的列表中跟进细节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP申请线上支付的条件的费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢创基</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1573,15 +1585,15 @@
       </c>
       <c r="C5" s="14">
         <f>COUNTA(运营!A2:A50000)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="14">
         <f>COUNTIF(运营!$B$2:$B$49999,"否")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" s="16">
         <f>(C5-D5)/C5</f>
-        <v>0.5625</v>
+        <v>0.52941176470588236</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1685,7 +1697,7 @@
       </c>
       <c r="D12" s="14">
         <f ca="1">COUNTIFS(需求!C:C,"否",需求!G:G,B12,需求!E:E,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E12" s="14">
         <f>COUNTIFS(问题!B:B,"否",问题!F:F,B12)</f>
@@ -1709,7 +1721,7 @@
       </c>
       <c r="J12" s="20">
         <f ca="1">SUM(D12,F12,H12)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1738,7 +1750,7 @@
       </c>
       <c r="H13" s="14">
         <f ca="1">COUNTIFS(运营!B:B,"否",运营!F:F,B13,运营!D:D,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" s="20">
         <f t="shared" ref="I13:I17" si="0">SUM(C13,E13,G13)</f>
@@ -1746,7 +1758,7 @@
       </c>
       <c r="J13" s="20">
         <f t="shared" ref="J13:J17" ca="1" si="1">SUM(D13,F13,H13)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1808,19 +1820,19 @@
       </c>
       <c r="G15" s="14">
         <f>COUNTIFS(运营!B:B,"否",运营!F:F,B15)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H15" s="14">
         <f ca="1">COUNTIFS(运营!B:B,"否",运营!F:F,B15,运营!D:D,"&lt;="&amp;TEXT(TODAY(),"yyyymmdd"))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I15" s="20">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J15" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1915,7 +1927,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
+      <selection pane="bottomLeft" activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3187,11 +3199,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3521,6 +3533,23 @@
       </c>
       <c r="F17" t="s">
         <v>217</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B18" t="s">
+        <v>231</v>
+      </c>
+      <c r="C18">
+        <v>20150604</v>
+      </c>
+      <c r="D18">
+        <v>20150611</v>
+      </c>
+      <c r="F18" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -3539,7 +3568,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
